--- a/Doc/XmlDataDocument_170215.xlsx
+++ b/Doc/XmlDataDocument_170215.xlsx
@@ -46,12 +46,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="101">
   <si>
     <t>hero</t>
-  </si>
-  <si>
-    <t>SexyBackIcon_FireElemental</t>
   </si>
   <si>
     <t>id</t>
@@ -90,22 +87,6 @@
   </si>
   <si>
     <t>descrption</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SexyBackIcon_WaterElemental</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SexyBackIcon_RockElemental</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SexyBackIcon_ElectricElemental</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SexyBackIcon_SnowElemental</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -264,13 +245,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SexyBackIcon_SWORD4</t>
-  </si>
-  <si>
-    <t>SexyBackIcon_SWORD4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DpcX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -348,9 +322,6 @@
     <t>iceblock</t>
   </si>
   <si>
-    <t>SexyBackIcon_SWORD</t>
-  </si>
-  <si>
     <t>R99</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -422,6 +393,27 @@
   <si>
     <t>156451209</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_01</t>
+  </si>
+  <si>
+    <t>Icon_04</t>
+  </si>
+  <si>
+    <t>Icon_09</t>
+  </si>
+  <si>
+    <t>Icon_07</t>
+  </si>
+  <si>
+    <t>Icon_19</t>
+  </si>
+  <si>
+    <t>Icon_11</t>
+  </si>
+  <si>
+    <t>Icon_08</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1191,7 @@
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1224,69 +1216,69 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="E2" s="1" t="str">
         <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
@@ -1320,27 +1312,27 @@
         <v>BR01</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
+      <c r="D3" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="E3" s="1" t="str">
         <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
@@ -1374,27 +1366,27 @@
         <v>BR02</v>
       </c>
       <c r="O3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
+      <c r="D4" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="E4" s="1" t="str">
         <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
@@ -1428,27 +1420,27 @@
         <v>BR03</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
+      <c r="D5" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="E5" s="1" t="str">
         <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
@@ -1482,27 +1474,27 @@
         <v>BR04</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="E6" s="1" t="str">
         <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
@@ -1536,27 +1528,27 @@
         <v>BR05</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="C7" s="7">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="E7" s="7" t="str">
         <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
@@ -1590,10 +1582,10 @@
         <v>BR00_001</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Q7" s="9">
         <v>2</v>
@@ -1602,16 +1594,16 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="E8" s="7" t="str">
         <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
@@ -1645,10 +1637,10 @@
         <v>BR00_002</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="9">
         <v>2</v>
@@ -1657,16 +1649,16 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C9" s="7">
         <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="E9" s="7" t="str">
         <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
@@ -1700,10 +1692,10 @@
         <v>BR00_003</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="9">
         <v>8</v>
@@ -1712,16 +1704,16 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2">
         <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="E10" s="7" t="str">
         <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
@@ -1755,10 +1747,10 @@
         <v>BR00_004</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="9">
         <v>10</v>
@@ -1767,16 +1759,16 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C11" s="7">
         <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="E11" s="7" t="str">
         <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
@@ -1810,10 +1802,10 @@
         <v>BR00_005</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="9">
         <v>30</v>
@@ -1822,16 +1814,16 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="E12" s="2" t="str">
         <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
@@ -1865,10 +1857,10 @@
         <v>BR01_001</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q12" s="2">
         <v>2</v>
@@ -1876,16 +1868,16 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="E13" s="2" t="str">
         <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
@@ -1919,10 +1911,10 @@
         <v>BR01_002</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q13" s="2">
         <v>2</v>
@@ -1930,16 +1922,16 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C14" s="5">
         <v>10</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="E14" s="2" t="str">
         <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
@@ -1973,10 +1965,10 @@
         <v>BR01_003</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q14" s="2">
         <v>2</v>
@@ -1984,16 +1976,16 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C15" s="5">
         <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="E15" s="2" t="str">
         <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
@@ -2027,10 +2019,10 @@
         <v>BR01_004</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="2">
         <v>3</v>
@@ -2038,16 +2030,16 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C16" s="5">
         <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="E16" s="2" t="str">
         <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
@@ -2081,10 +2073,10 @@
         <v>BR01_005</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q16" s="2">
         <v>9</v>
@@ -2092,16 +2084,16 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C17" s="5">
         <v>50</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="E17" s="2" t="str">
         <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
@@ -2135,10 +2127,10 @@
         <v>BR01_006</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q17" s="2">
         <v>40</v>
@@ -2146,16 +2138,16 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="E18" s="2" t="str">
         <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
@@ -2189,10 +2181,10 @@
         <v>BR02_001</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q18" s="2">
         <v>3</v>
@@ -2201,16 +2193,16 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2">
         <v>10</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="E19" s="2" t="str">
         <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
@@ -2244,10 +2236,10 @@
         <v>BR02_002</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q19" s="2">
         <v>3</v>
@@ -2256,16 +2248,16 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2">
         <v>20</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="E20" s="2" t="str">
         <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
@@ -2299,10 +2291,10 @@
         <v>BR02_003</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q20" s="2">
         <v>8</v>
@@ -2311,16 +2303,16 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2">
         <v>40</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="E21" s="2" t="str">
         <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
@@ -2354,10 +2346,10 @@
         <v>BR02_004</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q21" s="2">
         <v>12</v>
@@ -2366,16 +2358,16 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C22" s="2">
         <v>60</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="E22" s="2" t="str">
         <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
@@ -2409,10 +2401,10 @@
         <v>BR02_005</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q22" s="2">
         <v>12</v>
@@ -2421,16 +2413,16 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="E23" s="2" t="str">
         <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
@@ -2464,10 +2456,10 @@
         <v>BR03_001</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q23" s="2">
         <v>5</v>
@@ -2476,16 +2468,16 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C24" s="2">
         <v>10</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="E24" s="2" t="str">
         <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
@@ -2519,10 +2511,10 @@
         <v>BR03_002</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q24" s="2">
         <v>6</v>
@@ -2531,16 +2523,16 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C25" s="2">
         <v>30</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="E25" s="2" t="str">
         <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
@@ -2574,10 +2566,10 @@
         <v>BR03_003</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q25" s="2">
         <v>10</v>
@@ -2586,16 +2578,16 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="E26" s="2" t="str">
         <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
@@ -2629,10 +2621,10 @@
         <v>BR04_001</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q26" s="2">
         <v>5</v>
@@ -2641,16 +2633,16 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C27" s="2">
         <v>10</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="E27" s="2" t="str">
         <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
@@ -2684,10 +2676,10 @@
         <v>BR04_002</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q27" s="2">
         <v>4</v>
@@ -2696,7 +2688,7 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>0</v>
@@ -2705,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="E28" s="1" t="str">
         <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
@@ -2739,10 +2731,10 @@
         <v>BR99</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="Q28" s="2">
         <v>2</v>
@@ -2751,7 +2743,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>0</v>
@@ -2760,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="E29" s="1" t="str">
         <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
@@ -2794,10 +2786,10 @@
         <v>BR98</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="Q29" s="2">
         <v>2</v>
@@ -2806,7 +2798,7 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>0</v>
@@ -2815,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="E30" s="7" t="str">
         <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
@@ -2849,10 +2841,10 @@
         <v>BR97</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="Q30" s="7">
         <v>2</v>
@@ -3923,7 +3915,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3937,27 +3929,27 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>5200</v>
@@ -3971,27 +3963,27 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>5300</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>5500</v>
@@ -4000,72 +3992,72 @@
         <v>150.40000000000038</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>5700</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>6100</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C7">
         <v>6300</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C8">
         <v>6700</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E8" s="1">
         <v>285955496724018.81</v>
@@ -4073,10 +4065,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C9">
         <v>6900</v>
@@ -4090,10 +4082,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C10">
         <v>7300</v>
@@ -4142,99 +4134,99 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="11" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D1" s="20">
         <f>POWER(2,0.2)</f>
         <v>1.1486983549970351</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J1" s="10"/>
       <c r="K1" s="10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="L1" s="10"/>
       <c r="M1" s="10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="N1" s="10"/>
       <c r="O1" s="10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="P1" s="10"/>
       <c r="Q1" s="10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="R1" s="10"/>
       <c r="S1" s="10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="T1" s="10"/>
     </row>
     <row r="2" spans="1:20">
       <c r="D2" s="20" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="N2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="P2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="R2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="T2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -4262,7 +4254,7 @@
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="22" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>1</v>

--- a/Doc/XmlDataDocument_170215.xlsx
+++ b/Doc/XmlDataDocument_170215.xlsx
@@ -42,11 +42,14 @@
   <connection id="8" name="research4" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\research.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="9" name="research5" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\research.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="153">
   <si>
     <t>hero</t>
   </si>
@@ -415,6 +418,214 @@
   <si>
     <t>Icon_08</t>
   </si>
+  <si>
+    <t>파이어볼 습득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물폭탄 습득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짱돌 습득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지지직 습득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈덩이 습득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짱쎈 파이어볼을 배웁니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짱쎈 물폭탄을 배웁니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짱쎈 짱돌을 배웁니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짱쎈 지지직을 배웁니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짱쎈 눈덩이을 배웁니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베기의 공격력이 2배 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베기의 공격력이 8배 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베기의 공격력이 10배 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베기의 공격력이 30배 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베기연마1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베기연마2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베기연마3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베기연마4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베기연마5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비법 : 화염구1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비법 : 화염구2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비법 : 화염구3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비법 : 화염구4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비법 : 화염구5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비법 : 화염구6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염구의 공격력이 2배 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염구의 공격력이 3배 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염구의 공격력이 9배 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염구의 공격력이 40배 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비법 : 물폭탄1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물폭탄의 공격력이 3배 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비법 : 물폭탄2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비법 : 물폭탄3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비법 : 물폭탄4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비법 : 물폭탄5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물폭탄의 공격력이 8배 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물폭탄의 공격력이 12배 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비법 : 짱돌1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비법 : 짱돌2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비법 : 짱돌3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비법 : 지지직1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비법 : 지지직2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간왜곡1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간왜곡2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간왜곡3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구시간이 2배 빨라집니다. 단, 단위 비용은 2배 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짱돌의 공격력이 5배 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짱돌의 공격력이 6배 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짱돌의 공격력이 10배 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지지직의 공격력이 5배 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지지직의 공격력이 4배 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subicon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -613,7 +824,16 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="25">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -692,12 +912,6 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
@@ -743,7 +957,7 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Schema ID="Schema5">
+  <Schema ID="Schema6">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="Researches">
         <xsd:complexType>
@@ -754,6 +968,7 @@
                   <xsd:element minOccurs="0" nillable="true" name="Info" form="unqualified">
                     <xsd:complexType>
                       <xsd:attribute name="icon" form="unqualified" type="xsd:string"/>
+                      <xsd:attribute name="subicon" form="unqualified" type="xsd:string"/>
                       <xsd:attribute name="name" form="unqualified" type="xsd:string"/>
                       <xsd:attribute name="description" form="unqualified" type="xsd:string"/>
                     </xsd:complexType>
@@ -793,58 +1008,62 @@
   <Map ID="7" Name="Elementals_맵" RootElement="Elementals" SchemaID="Schema7" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
     <DataBinding FileBinding="true" ConnectionID="3" DataBindingLoadMode="1"/>
   </Map>
-  <Map ID="9" Name="Researches_맵" RootElement="Researches" SchemaID="Schema5" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="8" DataBindingLoadMode="1"/>
+  <Map ID="10" Name="Researches_맵" RootElement="Researches" SchemaID="Schema6" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="9" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표28_2" displayName="표28_2" ref="A1:L30" tableType="xml" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" connectionId="8">
-  <autoFilter ref="A1:L30">
-    <filterColumn colId="8"/>
-    <filterColumn colId="10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표28_2" displayName="표28_2" ref="A1:M30" tableType="xml" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" connectionId="9">
+  <autoFilter ref="A1:M30">
+    <filterColumn colId="4"/>
+    <filterColumn colId="9"/>
     <filterColumn colId="11"/>
+    <filterColumn colId="12"/>
   </autoFilter>
-  <tableColumns count="12">
-    <tableColumn id="1" uniqueName="id" name="id" dataDxfId="21">
-      <xmlColumnPr mapId="9" xpath="/Researches/Research/@id" xmlDataType="string"/>
+  <tableColumns count="13">
+    <tableColumn id="1" uniqueName="id" name="id" dataDxfId="22">
+      <xmlColumnPr mapId="10" xpath="/Researches/Research/@id" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="requireid" name="requireid" dataDxfId="20">
-      <xmlColumnPr mapId="9" xpath="/Researches/Research/@requireid" xmlDataType="string"/>
+    <tableColumn id="2" uniqueName="requireid" name="requireid" dataDxfId="21">
+      <xmlColumnPr mapId="10" xpath="/Researches/Research/@requireid" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="requirelevel" name="requirelevel" dataDxfId="19">
-      <xmlColumnPr mapId="9" xpath="/Researches/Research/@requirelevel" xmlDataType="integer"/>
+    <tableColumn id="3" uniqueName="requirelevel" name="requirelevel" dataDxfId="20">
+      <xmlColumnPr mapId="10" xpath="/Researches/Research/@requirelevel" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="icon" name="icon" dataDxfId="18">
-      <xmlColumnPr mapId="9" xpath="/Researches/Research/Info/@icon" xmlDataType="string"/>
+    <tableColumn id="4" uniqueName="icon" name="icon" dataDxfId="2">
+      <xmlColumnPr mapId="10" xpath="/Researches/Research/Info/@icon" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="name" name="name" dataDxfId="17">
+    <tableColumn id="13" uniqueName="subicon" name="subicon" dataDxfId="0">
+      <xmlColumnPr mapId="10" xpath="/Researches/Research/Info/@subicon" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="5" uniqueName="name" name="name" dataDxfId="1">
       <calculatedColumnFormula>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</calculatedColumnFormula>
-      <xmlColumnPr mapId="9" xpath="/Researches/Research/Info/@name" xmlDataType="string"/>
+      <xmlColumnPr mapId="10" xpath="/Researches/Research/Info/@name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="description" name="descrption" dataDxfId="16">
+    <tableColumn id="6" uniqueName="description" name="descrption" dataDxfId="19">
       <calculatedColumnFormula>CONCATENATE("@S",표28_2[[#This Row],[id]],"D@")</calculatedColumnFormula>
-      <xmlColumnPr mapId="9" xpath="/Researches/Research/Info/@description" xmlDataType="string"/>
+      <xmlColumnPr mapId="10" xpath="/Researches/Research/Info/@description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="level" name="level" dataDxfId="15">
-      <xmlColumnPr mapId="9" xpath="/Researches/Research/Price/@level" xmlDataType="integer"/>
+    <tableColumn id="7" uniqueName="level" name="level" dataDxfId="18">
+      <xmlColumnPr mapId="10" xpath="/Researches/Research/Price/@level" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="baselevel" name="baselevel" dataDxfId="14">
-      <xmlColumnPr mapId="9" xpath="/Researches/Research/Price/@baselevel" xmlDataType="integer"/>
+    <tableColumn id="8" uniqueName="baselevel" name="baselevel" dataDxfId="17">
+      <xmlColumnPr mapId="10" xpath="/Researches/Research/Price/@baselevel" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="baseprice" name="baseprice" dataDxfId="13">
-      <xmlColumnPr mapId="9" xpath="/Researches/Research/Price/@baseprice" xmlDataType="integer"/>
+    <tableColumn id="12" uniqueName="baseprice" name="baseprice" dataDxfId="16">
+      <xmlColumnPr mapId="10" xpath="/Researches/Research/Price/@baseprice" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="rate" name="POTPercent" dataDxfId="12">
-      <xmlColumnPr mapId="9" xpath="/Researches/Research/PriceOverTime/@rate" xmlDataType="integer"/>
+    <tableColumn id="9" uniqueName="rate" name="POTPercent" dataDxfId="15">
+      <xmlColumnPr mapId="10" xpath="/Researches/Research/PriceOverTime/@rate" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="basetime" name="baseTime" dataDxfId="11">
-      <xmlColumnPr mapId="9" xpath="/Researches/Research/PriceOverTime/@basetime" xmlDataType="integer"/>
+    <tableColumn id="10" uniqueName="basetime" name="baseTime" dataDxfId="14">
+      <xmlColumnPr mapId="10" xpath="/Researches/Research/PriceOverTime/@basetime" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="groupid" name="groupid" dataDxfId="10">
+    <tableColumn id="11" uniqueName="groupid" name="groupid" dataDxfId="13">
       <calculatedColumnFormula>CONCATENATE("B",표28_2[[#This Row],[id]])</calculatedColumnFormula>
-      <xmlColumnPr mapId="9" xpath="/Researches/Research/BonusList/@groupid" xmlDataType="string"/>
+      <xmlColumnPr mapId="10" xpath="/Researches/Research/BonusList/@groupid" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -852,23 +1071,23 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표29_3" displayName="표29_3" ref="N1:R30" tableType="xml" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" connectionId="2">
-  <autoFilter ref="N1:R30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표29_3" displayName="표29_3" ref="O1:S30" tableType="xml" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" connectionId="2">
+  <autoFilter ref="O1:S30"/>
   <tableColumns count="5">
-    <tableColumn id="1" uniqueName="group" name="group" dataDxfId="7">
+    <tableColumn id="1" uniqueName="group" name="group" dataDxfId="10">
       <calculatedColumnFormula>표28_2[[#This Row],[groupid]]</calculatedColumnFormula>
       <xmlColumnPr mapId="4" xpath="/BonusList/Bonus/@group" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="target" name="target" dataDxfId="6">
+    <tableColumn id="2" uniqueName="target" name="target" dataDxfId="9">
       <xmlColumnPr mapId="4" xpath="/BonusList/Bonus/@target" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="attribute" name="attribute" dataDxfId="5">
+    <tableColumn id="3" uniqueName="attribute" name="attribute" dataDxfId="8">
       <xmlColumnPr mapId="4" xpath="/BonusList/Bonus/@attribute" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="value" name="value" dataDxfId="4">
+    <tableColumn id="4" uniqueName="value" name="value" dataDxfId="7">
       <xmlColumnPr mapId="4" xpath="/BonusList/Bonus/@value" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="stringvalue" name="stringvalue" dataDxfId="3">
+    <tableColumn id="5" uniqueName="stringvalue" name="stringvalue" dataDxfId="6">
       <xmlColumnPr mapId="4" xpath="/BonusList/Bonus/@stringvalue" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -889,10 +1108,10 @@
     <tableColumn id="3" uniqueName="attackIntervalK" name="attackIntervalK">
       <xmlColumnPr mapId="7" xpath="/Elementals/Elemental/@attackIntervalK" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="basedps" name="basedps" dataDxfId="2">
+    <tableColumn id="4" uniqueName="basedps" name="basedps" dataDxfId="5">
       <xmlColumnPr mapId="7" xpath="/Elementals/Elemental/@basedps" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="baseexp" name="baseexp" dataDxfId="1">
+    <tableColumn id="5" uniqueName="baseexp" name="baseexp" dataDxfId="4">
       <xmlColumnPr mapId="7" xpath="/Elementals/Elemental/@baseexp" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
@@ -1185,13 +1404,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R92"/>
+  <dimension ref="A1:S92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1200,21 +1419,22 @@
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.625" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.75" customWidth="1"/>
-    <col min="9" max="9" width="10.75" style="6" customWidth="1"/>
-    <col min="10" max="10" width="10.75" customWidth="1"/>
-    <col min="11" max="11" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="6" customWidth="1"/>
+    <col min="9" max="9" width="11.75" customWidth="1"/>
+    <col min="10" max="10" width="10.75" style="6" customWidth="1"/>
+    <col min="11" max="11" width="10.75" customWidth="1"/>
+    <col min="12" max="12" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.25" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1228,46 +1448,49 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
@@ -1277,51 +1500,49 @@
       <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="1" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
-        <v>@SR01N@</v>
-      </c>
-      <c r="F2" s="2" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"D@")</f>
-        <v>@SR01D@</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
+      <c r="F2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="H2" s="5">
         <v>0</v>
       </c>
       <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
         <v>480</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>80</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>60</v>
       </c>
-      <c r="L2" s="1" t="str">
+      <c r="M2" s="1" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
         <v>BR01</v>
       </c>
-      <c r="N2" s="2" t="str">
+      <c r="O2" s="2" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
         <v>BR01</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1331,51 +1552,49 @@
       <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="1" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
-        <v>@SR02N@</v>
-      </c>
-      <c r="F3" s="2" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"D@")</f>
-        <v>@SR02D@</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
+      <c r="F3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="H3" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I3" s="5">
+        <v>10</v>
+      </c>
+      <c r="J3" s="5">
         <v>676</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>80</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>60</v>
       </c>
-      <c r="L3" s="1" t="str">
+      <c r="M3" s="1" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
         <v>BR02</v>
       </c>
-      <c r="N3" s="2" t="str">
+      <c r="O3" s="2" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
         <v>BR02</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1385,51 +1604,49 @@
       <c r="C4" s="2">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="1" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
-        <v>@SR03N@</v>
-      </c>
-      <c r="F4" s="2" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"D@")</f>
-        <v>@SR03D@</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
+      <c r="F4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
         <v>35</v>
       </c>
-      <c r="I4" s="5">
+      <c r="J4" s="5">
         <v>904</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>80</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>60</v>
       </c>
-      <c r="L4" s="1" t="str">
+      <c r="M4" s="1" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
         <v>BR03</v>
       </c>
-      <c r="N4" s="2" t="str">
+      <c r="O4" s="2" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
         <v>BR03</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1439,55 +1656,53 @@
       <c r="C5" s="2">
         <v>0</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="1" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
-        <v>@SR04N@</v>
-      </c>
-      <c r="F5" s="2" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"D@")</f>
-        <v>@SR04D@</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
+      <c r="F5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
         <v>60</v>
       </c>
-      <c r="I5" s="5">
+      <c r="J5" s="5">
         <v>1172</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>80</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>60</v>
       </c>
-      <c r="L5" s="1" t="str">
+      <c r="M5" s="1" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
         <v>BR04</v>
       </c>
-      <c r="N5" s="2" t="str">
+      <c r="O5" s="2" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
         <v>BR04</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="2">
@@ -1496,52 +1711,50 @@
       <c r="D6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="1" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
-        <v>@SR05N@</v>
-      </c>
-      <c r="F6" s="2" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"D@")</f>
-        <v>@SR05D@</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
+      <c r="F6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
         <v>90</v>
       </c>
-      <c r="I6" s="5">
+      <c r="J6" s="5">
         <v>1492</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>80</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>60</v>
       </c>
-      <c r="L6" s="1" t="str">
+      <c r="M6" s="1" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
         <v>BR05</v>
       </c>
-      <c r="N6" s="2" t="str">
+      <c r="O6" s="2" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
         <v>BR05</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:19">
+      <c r="A7" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="25" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="7">
@@ -1550,53 +1763,55 @@
       <c r="D7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="7" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
-        <v>@SR00_001N@</v>
-      </c>
-      <c r="F7" s="7" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"D@")</f>
-        <v>@SR00_001D@</v>
-      </c>
-      <c r="G7" s="8">
+      <c r="E7" s="2" t="str">
+        <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
+        <v>x2</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="8">
         <v>5</v>
       </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
         <v>480</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>80</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>60</v>
       </c>
-      <c r="L7" s="7" t="str">
+      <c r="M7" s="25" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
         <v>BR00_001</v>
       </c>
-      <c r="N7" s="7" t="str">
+      <c r="O7" s="7" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
         <v>BR00_001</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="R7" s="9">
         <v>2</v>
       </c>
-      <c r="R7" s="7"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="7" t="s">
+      <c r="S7" s="7"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="25" t="s">
         <v>53</v>
       </c>
       <c r="C8" s="2">
@@ -1605,53 +1820,55 @@
       <c r="D8" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="7" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
-        <v>@SR00_002N@</v>
-      </c>
-      <c r="F8" s="7" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"D@")</f>
-        <v>@SR00_002D@</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="E8" s="2" t="str">
+        <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
+        <v>x2</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="5">
         <v>15</v>
       </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
         <v>480</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>80</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>60</v>
       </c>
-      <c r="L8" s="7" t="str">
+      <c r="M8" s="25" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
         <v>BR00_002</v>
       </c>
-      <c r="N8" s="7" t="str">
+      <c r="O8" s="7" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
         <v>BR00_002</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="R8" s="9">
         <v>2</v>
       </c>
-      <c r="R8" s="7"/>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="7" t="s">
+      <c r="S8" s="7"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="25" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="7">
@@ -1660,53 +1877,55 @@
       <c r="D9" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="7" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
-        <v>@SR00_003N@</v>
-      </c>
-      <c r="F9" s="7" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"D@")</f>
-        <v>@SR00_003D@</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="E9" s="2" t="str">
+        <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
+        <v>x8</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" s="8">
         <v>40</v>
       </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
         <v>480</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>80</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>60</v>
       </c>
-      <c r="L9" s="7" t="str">
+      <c r="M9" s="25" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
         <v>BR00_003</v>
       </c>
-      <c r="N9" s="7" t="str">
+      <c r="O9" s="7" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
         <v>BR00_003</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="R9" s="9">
         <v>8</v>
       </c>
-      <c r="R9" s="7"/>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="7" t="s">
+      <c r="S9" s="7"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="25" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="2">
@@ -1715,53 +1934,55 @@
       <c r="D10" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="7" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
-        <v>@SR00_004N@</v>
-      </c>
-      <c r="F10" s="7" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"D@")</f>
-        <v>@SR00_004D@</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="E10" s="2" t="str">
+        <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
+        <v>x10</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="5">
         <v>60</v>
       </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
         <v>480</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>80</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>60</v>
       </c>
-      <c r="L10" s="7" t="str">
+      <c r="M10" s="25" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
         <v>BR00_004</v>
       </c>
-      <c r="N10" s="7" t="str">
+      <c r="O10" s="7" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
         <v>BR00_004</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="Q10" s="9">
-        <v>10</v>
-      </c>
-      <c r="R10" s="7"/>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="7" t="s">
+      <c r="R10" s="9">
+        <v>10</v>
+      </c>
+      <c r="S10" s="7"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="25" t="s">
         <v>53</v>
       </c>
       <c r="C11" s="7">
@@ -1770,923 +1991,957 @@
       <c r="D11" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="7" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
-        <v>@SR00_005N@</v>
-      </c>
-      <c r="F11" s="7" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"D@")</f>
-        <v>@SR00_005D@</v>
-      </c>
-      <c r="G11" s="8">
+      <c r="E11" s="2" t="str">
+        <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
+        <v>x30</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" s="8">
         <v>90</v>
       </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
         <v>480</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>80</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>60</v>
       </c>
-      <c r="L11" s="7" t="str">
+      <c r="M11" s="25" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
         <v>BR00_005</v>
       </c>
-      <c r="N11" s="7" t="str">
+      <c r="O11" s="7" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
         <v>BR00_005</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="R11" s="9">
         <v>30</v>
       </c>
-      <c r="R11" s="7"/>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="2" t="s">
+      <c r="S11" s="7"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E12" s="2" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
-        <v>@SR01_001N@</v>
-      </c>
-      <c r="F12" s="2" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"D@")</f>
-        <v>@SR01_001D@</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0</v>
+        <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
+        <v>x2</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="H12" s="5">
         <v>0</v>
       </c>
       <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
         <v>480</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>80</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <v>60</v>
       </c>
-      <c r="L12" s="2" t="str">
+      <c r="M12" s="1" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
         <v>BR01_001</v>
       </c>
-      <c r="N12" s="2" t="str">
+      <c r="O12" s="2" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
         <v>BR01_001</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="P12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="R12" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:19">
+      <c r="A13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E13" s="2" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
-        <v>@SR01_002N@</v>
-      </c>
-      <c r="F13" s="2" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"D@")</f>
-        <v>@SR01_002D@</v>
-      </c>
-      <c r="G13" s="5">
-        <v>10</v>
+        <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
+        <v>x2</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="H13" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
         <v>480</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>80</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>60</v>
       </c>
-      <c r="L13" s="2" t="str">
+      <c r="M13" s="1" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
         <v>BR01_002</v>
       </c>
-      <c r="N13" s="2" t="str">
+      <c r="O13" s="2" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
         <v>BR01_002</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="R13" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:19">
+      <c r="A14" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="5">
         <v>10</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E14" s="2" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
-        <v>@SR01_003N@</v>
-      </c>
-      <c r="F14" s="2" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"D@")</f>
-        <v>@SR01_003D@</v>
-      </c>
-      <c r="G14" s="5">
+        <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
+        <v>x2</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="5">
         <v>20</v>
       </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
       <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
         <v>480</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <v>80</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L14" s="2">
         <v>60</v>
       </c>
-      <c r="L14" s="2" t="str">
+      <c r="M14" s="1" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
         <v>BR01_003</v>
       </c>
-      <c r="N14" s="2" t="str">
+      <c r="O14" s="2" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
         <v>BR01_003</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="P14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="R14" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:19">
+      <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="5">
         <v>20</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E15" s="2" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
-        <v>@SR01_004N@</v>
-      </c>
-      <c r="F15" s="2" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"D@")</f>
-        <v>@SR01_004D@</v>
-      </c>
-      <c r="G15" s="5">
+        <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
+        <v>x3</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="5">
         <v>30</v>
       </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
       <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
         <v>480</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <v>80</v>
       </c>
-      <c r="K15" s="2">
+      <c r="L15" s="2">
         <v>60</v>
       </c>
-      <c r="L15" s="2" t="str">
+      <c r="M15" s="1" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
         <v>BR01_004</v>
       </c>
-      <c r="N15" s="2" t="str">
+      <c r="O15" s="2" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
         <v>BR01_004</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="P15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="R15" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:19">
+      <c r="A16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="5">
         <v>30</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E16" s="2" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
-        <v>@SR01_005N@</v>
-      </c>
-      <c r="F16" s="2" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"D@")</f>
-        <v>@SR01_005D@</v>
-      </c>
-      <c r="G16" s="5">
+        <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
+        <v>x9</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" s="5">
         <v>50</v>
       </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
       <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
         <v>480</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K16" s="2">
         <v>80</v>
       </c>
-      <c r="K16" s="2">
+      <c r="L16" s="2">
         <v>60</v>
       </c>
-      <c r="L16" s="2" t="str">
+      <c r="M16" s="1" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
         <v>BR01_005</v>
       </c>
-      <c r="N16" s="2" t="str">
+      <c r="O16" s="2" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
         <v>BR01_005</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="R16" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:19">
+      <c r="A17" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="5">
         <v>50</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E17" s="2" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
-        <v>@SR01_006N@</v>
-      </c>
-      <c r="F17" s="2" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"D@")</f>
-        <v>@SR01_006D@</v>
-      </c>
-      <c r="G17" s="5">
+        <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
+        <v>x40</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H17" s="5">
         <v>80</v>
       </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
       <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
         <v>480</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K17" s="2">
         <v>80</v>
       </c>
-      <c r="K17" s="2">
+      <c r="L17" s="2">
         <v>60</v>
       </c>
-      <c r="L17" s="2" t="str">
+      <c r="M17" s="1" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
         <v>BR01_006</v>
       </c>
-      <c r="N17" s="2" t="str">
+      <c r="O17" s="2" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
         <v>BR01_006</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="P17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="R17" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:19">
+      <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>96</v>
       </c>
       <c r="E18" s="2" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
-        <v>@SR02_001N@</v>
-      </c>
-      <c r="F18" s="2" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"D@")</f>
-        <v>@SR02_001D@</v>
-      </c>
-      <c r="G18" s="5">
-        <v>10</v>
+        <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
+        <v>x3</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="H18" s="5">
         <v>10</v>
       </c>
       <c r="I18" s="5">
+        <v>10</v>
+      </c>
+      <c r="J18" s="5">
         <v>676</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K18" s="2">
         <v>80</v>
       </c>
-      <c r="K18" s="2">
+      <c r="L18" s="2">
         <v>60</v>
       </c>
-      <c r="L18" s="2" t="str">
+      <c r="M18" s="1" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
         <v>BR02_001</v>
       </c>
-      <c r="N18" s="7" t="str">
+      <c r="O18" s="7" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
         <v>BR02_001</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="P18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="R18" s="2">
         <v>3</v>
       </c>
-      <c r="R18" s="7"/>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="2" t="s">
+      <c r="S18" s="7"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="2">
         <v>10</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>96</v>
       </c>
       <c r="E19" s="2" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
-        <v>@SR02_002N@</v>
-      </c>
-      <c r="F19" s="2" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"D@")</f>
-        <v>@SR02_002D@</v>
-      </c>
-      <c r="G19" s="5">
+        <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
+        <v>x3</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" s="5">
         <v>20</v>
       </c>
-      <c r="H19" s="5">
-        <v>10</v>
-      </c>
       <c r="I19" s="5">
+        <v>10</v>
+      </c>
+      <c r="J19" s="5">
         <v>676</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K19" s="2">
         <v>80</v>
       </c>
-      <c r="K19" s="2">
+      <c r="L19" s="2">
         <v>60</v>
       </c>
-      <c r="L19" s="2" t="str">
+      <c r="M19" s="1" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
         <v>BR02_002</v>
       </c>
-      <c r="N19" s="7" t="str">
+      <c r="O19" s="7" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
         <v>BR02_002</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="P19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="R19" s="2">
         <v>3</v>
       </c>
-      <c r="R19" s="7"/>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="2" t="s">
+      <c r="S19" s="7"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="2">
         <v>20</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>96</v>
       </c>
       <c r="E20" s="2" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
-        <v>@SR02_003N@</v>
-      </c>
-      <c r="F20" s="2" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"D@")</f>
-        <v>@SR02_003D@</v>
-      </c>
-      <c r="G20" s="5">
+        <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
+        <v>x8</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H20" s="5">
         <v>40</v>
       </c>
-      <c r="H20" s="5">
-        <v>10</v>
-      </c>
       <c r="I20" s="5">
+        <v>10</v>
+      </c>
+      <c r="J20" s="5">
         <v>676</v>
       </c>
-      <c r="J20" s="2">
+      <c r="K20" s="2">
         <v>80</v>
       </c>
-      <c r="K20" s="2">
+      <c r="L20" s="2">
         <v>60</v>
       </c>
-      <c r="L20" s="2" t="str">
+      <c r="M20" s="1" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
         <v>BR02_003</v>
       </c>
-      <c r="N20" s="7" t="str">
+      <c r="O20" s="7" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
         <v>BR02_003</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="P20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="R20" s="2">
         <v>8</v>
       </c>
-      <c r="R20" s="7"/>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="2" t="s">
+      <c r="S20" s="7"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="2">
         <v>40</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>96</v>
       </c>
       <c r="E21" s="2" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
-        <v>@SR02_004N@</v>
-      </c>
-      <c r="F21" s="2" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"D@")</f>
-        <v>@SR02_004D@</v>
-      </c>
-      <c r="G21" s="5">
+        <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
+        <v>x12</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H21" s="5">
         <v>60</v>
       </c>
-      <c r="H21" s="5">
-        <v>10</v>
-      </c>
       <c r="I21" s="5">
+        <v>10</v>
+      </c>
+      <c r="J21" s="5">
         <v>676</v>
       </c>
-      <c r="J21" s="2">
+      <c r="K21" s="2">
         <v>80</v>
       </c>
-      <c r="K21" s="2">
+      <c r="L21" s="2">
         <v>60</v>
       </c>
-      <c r="L21" s="2" t="str">
+      <c r="M21" s="1" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
         <v>BR02_004</v>
       </c>
-      <c r="N21" s="7" t="str">
+      <c r="O21" s="7" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
         <v>BR02_004</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="P21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="R21" s="2">
         <v>12</v>
       </c>
-      <c r="R21" s="7"/>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="2" t="s">
+      <c r="S21" s="7"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="2">
         <v>60</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>96</v>
       </c>
       <c r="E22" s="2" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
-        <v>@SR02_005N@</v>
-      </c>
-      <c r="F22" s="2" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"D@")</f>
-        <v>@SR02_005D@</v>
-      </c>
-      <c r="G22" s="5">
+        <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
+        <v>x12</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H22" s="5">
         <v>80</v>
       </c>
-      <c r="H22" s="5">
-        <v>10</v>
-      </c>
       <c r="I22" s="5">
+        <v>10</v>
+      </c>
+      <c r="J22" s="5">
         <v>676</v>
       </c>
-      <c r="J22" s="2">
+      <c r="K22" s="2">
         <v>80</v>
       </c>
-      <c r="K22" s="2">
+      <c r="L22" s="2">
         <v>60</v>
       </c>
-      <c r="L22" s="2" t="str">
+      <c r="M22" s="1" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
         <v>BR02_005</v>
       </c>
-      <c r="N22" s="7" t="str">
+      <c r="O22" s="7" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
         <v>BR02_005</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="P22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="R22" s="2">
         <v>12</v>
       </c>
-      <c r="R22" s="7"/>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="2" t="s">
+      <c r="S22" s="7"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E23" s="2" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
-        <v>@SR03_001N@</v>
-      </c>
-      <c r="F23" s="2" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"D@")</f>
-        <v>@SR03_001D@</v>
-      </c>
-      <c r="G23" s="5">
-        <v>10</v>
+        <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
+        <v>x5</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="H23" s="5">
+        <v>10</v>
+      </c>
+      <c r="I23" s="5">
         <v>35</v>
       </c>
-      <c r="I23" s="5">
+      <c r="J23" s="5">
         <v>904</v>
       </c>
-      <c r="J23" s="2">
+      <c r="K23" s="2">
         <v>80</v>
       </c>
-      <c r="K23" s="2">
+      <c r="L23" s="2">
         <v>60</v>
       </c>
-      <c r="L23" s="2" t="str">
+      <c r="M23" s="1" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
         <v>BR03_001</v>
       </c>
-      <c r="N23" s="7" t="str">
+      <c r="O23" s="7" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
         <v>BR03_001</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="P23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="R23" s="2">
         <v>5</v>
       </c>
-      <c r="R23" s="7"/>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="2" t="s">
+      <c r="S23" s="7"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="2">
         <v>10</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E24" s="2" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
-        <v>@SR03_002N@</v>
-      </c>
-      <c r="F24" s="2" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"D@")</f>
-        <v>@SR03_002D@</v>
-      </c>
-      <c r="G24" s="5">
+        <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
+        <v>x6</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H24" s="5">
         <v>30</v>
       </c>
-      <c r="H24" s="5">
+      <c r="I24" s="5">
         <v>35</v>
       </c>
-      <c r="I24" s="5">
+      <c r="J24" s="5">
         <v>904</v>
       </c>
-      <c r="J24" s="2">
+      <c r="K24" s="2">
         <v>80</v>
       </c>
-      <c r="K24" s="2">
+      <c r="L24" s="2">
         <v>60</v>
       </c>
-      <c r="L24" s="2" t="str">
+      <c r="M24" s="1" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
         <v>BR03_002</v>
       </c>
-      <c r="N24" s="7" t="str">
+      <c r="O24" s="7" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
         <v>BR03_002</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="P24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="R24" s="2">
         <v>6</v>
       </c>
-      <c r="R24" s="7"/>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="2" t="s">
+      <c r="S24" s="7"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="2">
         <v>30</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E25" s="2" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
-        <v>@SR03_003N@</v>
-      </c>
-      <c r="F25" s="2" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"D@")</f>
-        <v>@SR03_003D@</v>
-      </c>
-      <c r="G25" s="5">
+        <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
+        <v>x10</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H25" s="5">
         <v>50</v>
       </c>
-      <c r="H25" s="5">
+      <c r="I25" s="5">
         <v>35</v>
       </c>
-      <c r="I25" s="5">
+      <c r="J25" s="5">
         <v>904</v>
       </c>
-      <c r="J25" s="2">
+      <c r="K25" s="2">
         <v>80</v>
       </c>
-      <c r="K25" s="2">
+      <c r="L25" s="2">
         <v>60</v>
       </c>
-      <c r="L25" s="2" t="str">
+      <c r="M25" s="1" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
         <v>BR03_003</v>
       </c>
-      <c r="N25" s="7" t="str">
+      <c r="O25" s="7" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
         <v>BR03_003</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="P25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q25" s="2">
-        <v>10</v>
-      </c>
-      <c r="R25" s="7"/>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="2" t="s">
+      <c r="R25" s="2">
+        <v>10</v>
+      </c>
+      <c r="S25" s="7"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>95</v>
       </c>
       <c r="E26" s="2" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
-        <v>@SR04_001N@</v>
-      </c>
-      <c r="F26" s="2" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"D@")</f>
-        <v>@SR04_001D@</v>
-      </c>
-      <c r="G26" s="5">
-        <v>10</v>
+        <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
+        <v>x5</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="H26" s="5">
+        <v>10</v>
+      </c>
+      <c r="I26" s="5">
         <v>60</v>
       </c>
-      <c r="I26" s="5">
+      <c r="J26" s="5">
         <v>1172</v>
       </c>
-      <c r="J26" s="2">
+      <c r="K26" s="2">
         <v>80</v>
       </c>
-      <c r="K26" s="2">
+      <c r="L26" s="2">
         <v>60</v>
       </c>
-      <c r="L26" s="2" t="str">
+      <c r="M26" s="1" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
         <v>BR04_001</v>
       </c>
-      <c r="N26" s="7" t="str">
+      <c r="O26" s="7" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
         <v>BR04_001</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="P26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="R26" s="2">
         <v>5</v>
       </c>
-      <c r="R26" s="7"/>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="2" t="s">
+      <c r="S26" s="7"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="2">
         <v>10</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>95</v>
       </c>
       <c r="E27" s="2" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
-        <v>@SR04_002N@</v>
-      </c>
-      <c r="F27" s="2" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"D@")</f>
-        <v>@SR04_002D@</v>
-      </c>
-      <c r="G27" s="5">
+        <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
+        <v>x4</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H27" s="5">
         <v>25</v>
       </c>
-      <c r="H27" s="5">
+      <c r="I27" s="5">
         <v>60</v>
       </c>
-      <c r="I27" s="5">
+      <c r="J27" s="5">
         <v>1172</v>
       </c>
-      <c r="J27" s="2">
+      <c r="K27" s="2">
         <v>80</v>
       </c>
-      <c r="K27" s="2">
+      <c r="L27" s="2">
         <v>60</v>
       </c>
-      <c r="L27" s="2" t="str">
+      <c r="M27" s="1" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
         <v>BR04_002</v>
       </c>
-      <c r="N27" s="7" t="str">
+      <c r="O27" s="7" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
         <v>BR04_002</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="P27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="R27" s="2">
         <v>4</v>
       </c>
-      <c r="R27" s="7"/>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="S27" s="7"/>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="1" t="s">
         <v>75</v>
       </c>
@@ -2699,49 +2954,51 @@
       <c r="D28" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E28" s="1" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
-        <v>@SR99N@</v>
-      </c>
-      <c r="F28" s="2" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"D@")</f>
-        <v>@SR99D@</v>
-      </c>
-      <c r="G28" s="5">
+      <c r="E28" s="2" t="str">
+        <f>CONCATENATE("-x",표29_3[[#This Row],[value]])</f>
+        <v>-x2</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H28" s="5">
         <v>60</v>
       </c>
-      <c r="H28" s="5">
-        <v>0</v>
-      </c>
       <c r="I28" s="5">
+        <v>0</v>
+      </c>
+      <c r="J28" s="5">
         <v>782</v>
       </c>
-      <c r="J28" s="2">
-        <v>0</v>
-      </c>
       <c r="K28" s="2">
         <v>0</v>
       </c>
-      <c r="L28" s="1" t="str">
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
         <v>BR99</v>
       </c>
-      <c r="N28" s="7" t="str">
+      <c r="O28" s="7" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
         <v>BR99</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="P28" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="R28" s="2">
         <v>2</v>
       </c>
-      <c r="R28" s="7"/>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="S28" s="7"/>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="1" t="s">
         <v>76</v>
       </c>
@@ -2754,49 +3011,51 @@
       <c r="D29" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E29" s="1" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
-        <v>@SR98N@</v>
-      </c>
-      <c r="F29" s="2" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"D@")</f>
-        <v>@SR98D@</v>
-      </c>
-      <c r="G29" s="5">
+      <c r="E29" s="2" t="str">
+        <f>CONCATENATE("-x",표29_3[[#This Row],[value]])</f>
+        <v>-x2</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H29" s="5">
         <v>80</v>
       </c>
-      <c r="H29" s="5">
-        <v>0</v>
-      </c>
       <c r="I29" s="5">
+        <v>0</v>
+      </c>
+      <c r="J29" s="5">
         <v>826</v>
       </c>
-      <c r="J29" s="2">
-        <v>0</v>
-      </c>
       <c r="K29" s="2">
         <v>0</v>
       </c>
-      <c r="L29" s="1" t="str">
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
         <v>BR98</v>
       </c>
-      <c r="N29" s="7" t="str">
+      <c r="O29" s="7" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
         <v>BR98</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="P29" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="R29" s="2">
         <v>2</v>
       </c>
-      <c r="R29" s="7"/>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="S29" s="7"/>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,1084 +3065,1088 @@
       <c r="C30" s="2">
         <v>0</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="7" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</f>
-        <v>@SR97N@</v>
-      </c>
-      <c r="F30" s="7" t="str">
-        <f>CONCATENATE("@S",표28_2[[#This Row],[id]],"D@")</f>
-        <v>@SR97D@</v>
-      </c>
-      <c r="G30" s="8">
+      <c r="E30" s="2" t="str">
+        <f>CONCATENATE("-x",표29_3[[#This Row],[value]])</f>
+        <v>-x2</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H30" s="8">
         <v>100</v>
       </c>
-      <c r="H30" s="8">
-        <v>0</v>
-      </c>
-      <c r="I30" s="5">
+      <c r="I30" s="8">
+        <v>0</v>
+      </c>
+      <c r="J30" s="5">
         <v>1020</v>
       </c>
-      <c r="J30" s="7">
-        <v>0</v>
-      </c>
       <c r="K30" s="7">
         <v>0</v>
       </c>
-      <c r="L30" s="7" t="str">
+      <c r="L30" s="7">
+        <v>0</v>
+      </c>
+      <c r="M30" s="25" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
         <v>BR97</v>
       </c>
-      <c r="N30" s="7" t="str">
+      <c r="O30" s="7" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
         <v>BR97</v>
       </c>
-      <c r="O30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="Q30" s="7">
+      <c r="R30" s="7">
         <v>2</v>
       </c>
-      <c r="R30" s="7"/>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30" s="7"/>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="5"/>
+      <c r="G31" s="2"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
-      <c r="J31" s="2"/>
+      <c r="J31" s="5"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="N31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="R31" s="7"/>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="M31" s="2"/>
+      <c r="O31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="S31" s="7"/>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="5"/>
+      <c r="G32" s="2"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="2"/>
+      <c r="J32" s="5"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
-      <c r="N32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="R32" s="7"/>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="M32" s="2"/>
+      <c r="O32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="S32" s="7"/>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="5"/>
+      <c r="G33" s="2"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
-      <c r="J33" s="2"/>
+      <c r="J33" s="5"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
-      <c r="N33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="R33" s="7"/>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="M33" s="2"/>
+      <c r="O33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="S33" s="7"/>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="5"/>
+      <c r="G34" s="2"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="2"/>
+      <c r="J34" s="5"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
-      <c r="N34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="R34" s="7"/>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="M34" s="2"/>
+      <c r="O34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="S34" s="7"/>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="5"/>
+      <c r="G35" s="2"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
-      <c r="J35" s="2"/>
+      <c r="J35" s="5"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
-      <c r="N35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="R35" s="7"/>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="M35" s="2"/>
+      <c r="O35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="S35" s="7"/>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="5"/>
+      <c r="G36" s="2"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
-      <c r="J36" s="2"/>
+      <c r="J36" s="5"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
-      <c r="N36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="R36" s="7"/>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="M36" s="2"/>
+      <c r="O36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="S36" s="7"/>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="5"/>
+      <c r="G37" s="2"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
-      <c r="J37" s="2"/>
+      <c r="J37" s="5"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
-      <c r="N37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="R37" s="7"/>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="M37" s="2"/>
+      <c r="O37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="S37" s="7"/>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="5"/>
+      <c r="G38" s="2"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
-      <c r="J38" s="2"/>
+      <c r="J38" s="5"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
-      <c r="N38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="R38" s="7"/>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="M38" s="2"/>
+      <c r="O38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="S38" s="7"/>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="5"/>
+      <c r="G39" s="2"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
-      <c r="J39" s="2"/>
+      <c r="J39" s="5"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
-      <c r="N39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="R39" s="7"/>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="M39" s="2"/>
+      <c r="O39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="S39" s="7"/>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="5"/>
+      <c r="G40" s="2"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
-      <c r="J40" s="2"/>
+      <c r="J40" s="5"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
-      <c r="N40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="R40" s="7"/>
-    </row>
-    <row r="41" spans="1:18">
+      <c r="M40" s="2"/>
+      <c r="O40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="S40" s="7"/>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="5"/>
+      <c r="G41" s="2"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="2"/>
+      <c r="J41" s="5"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
-      <c r="N41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="R41" s="7"/>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="M41" s="2"/>
+      <c r="O41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="S41" s="7"/>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="8"/>
+      <c r="G42" s="7"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
-      <c r="J42" s="7"/>
+      <c r="J42" s="8"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
-      <c r="N42" s="7"/>
+      <c r="M42" s="7"/>
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="S42" s="7"/>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="5"/>
+      <c r="G43" s="2"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
-      <c r="J43" s="2"/>
+      <c r="J43" s="5"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
-      <c r="N43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="R43" s="7"/>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="M43" s="2"/>
+      <c r="O43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="S43" s="7"/>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="5"/>
+      <c r="G44" s="2"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
-      <c r="J44" s="2"/>
+      <c r="J44" s="5"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
-      <c r="P44" s="7"/>
-    </row>
-    <row r="45" spans="1:18">
+      <c r="M44" s="2"/>
+      <c r="Q44" s="7"/>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="5"/>
+      <c r="G45" s="2"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
-      <c r="J45" s="2"/>
+      <c r="J45" s="5"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
-      <c r="P45" s="7"/>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="M45" s="2"/>
+      <c r="Q45" s="7"/>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="5"/>
+      <c r="G46" s="2"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
-      <c r="J46" s="2"/>
+      <c r="J46" s="5"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
-      <c r="P46" s="7"/>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="M46" s="2"/>
+      <c r="Q46" s="7"/>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="5"/>
+      <c r="G47" s="2"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
-      <c r="J47" s="2"/>
+      <c r="J47" s="5"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
-      <c r="P47" s="7"/>
-    </row>
-    <row r="48" spans="1:18">
+      <c r="M47" s="2"/>
+      <c r="Q47" s="7"/>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="5"/>
+      <c r="G48" s="2"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
-      <c r="J48" s="2"/>
+      <c r="J48" s="5"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
-      <c r="P48" s="7"/>
-    </row>
-    <row r="49" spans="1:18">
+      <c r="M48" s="2"/>
+      <c r="Q48" s="7"/>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="5"/>
+      <c r="G49" s="2"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
-      <c r="J49" s="2"/>
+      <c r="J49" s="5"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
-      <c r="P49" s="7"/>
-    </row>
-    <row r="50" spans="1:18">
+      <c r="M49" s="2"/>
+      <c r="Q49" s="7"/>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="5"/>
+      <c r="G50" s="2"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
-      <c r="J50" s="2"/>
+      <c r="J50" s="5"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
-      <c r="P50" s="7"/>
-    </row>
-    <row r="51" spans="1:18">
+      <c r="M50" s="2"/>
+      <c r="Q50" s="7"/>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="5"/>
+      <c r="G51" s="2"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
-      <c r="J51" s="2"/>
+      <c r="J51" s="5"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
-      <c r="P51" s="7"/>
-    </row>
-    <row r="52" spans="1:18">
+      <c r="M51" s="2"/>
+      <c r="Q51" s="7"/>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="5"/>
+      <c r="G52" s="2"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
-      <c r="J52" s="2"/>
+      <c r="J52" s="5"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
-      <c r="P52" s="7"/>
-    </row>
-    <row r="53" spans="1:18">
+      <c r="M52" s="2"/>
+      <c r="Q52" s="7"/>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="5"/>
+      <c r="G53" s="2"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
-      <c r="J53" s="2"/>
+      <c r="J53" s="5"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
-      <c r="N53" s="7"/>
-      <c r="P53" s="7"/>
-      <c r="R53" s="7"/>
-    </row>
-    <row r="54" spans="1:18">
+      <c r="M53" s="2"/>
+      <c r="O53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="S53" s="7"/>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
       <c r="F54" s="2"/>
-      <c r="G54" s="5"/>
+      <c r="G54" s="2"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
-      <c r="J54" s="2"/>
+      <c r="J54" s="5"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
-      <c r="N54" s="7"/>
-      <c r="P54" s="7"/>
-      <c r="R54" s="7"/>
-    </row>
-    <row r="55" spans="1:18">
+      <c r="M54" s="2"/>
+      <c r="O54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="S54" s="7"/>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-      <c r="G55" s="5"/>
+      <c r="G55" s="2"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
-      <c r="J55" s="2"/>
+      <c r="J55" s="5"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
-      <c r="N55" s="7"/>
-      <c r="P55" s="7"/>
-      <c r="R55" s="7"/>
-    </row>
-    <row r="56" spans="1:18">
+      <c r="M55" s="2"/>
+      <c r="O55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="S55" s="7"/>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="5"/>
+      <c r="G56" s="2"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
-      <c r="J56" s="2"/>
+      <c r="J56" s="5"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
-      <c r="N56" s="7"/>
-      <c r="P56" s="7"/>
-      <c r="R56" s="7"/>
-    </row>
-    <row r="57" spans="1:18">
+      <c r="M56" s="2"/>
+      <c r="O56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="S56" s="7"/>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
       <c r="F57" s="2"/>
-      <c r="G57" s="5"/>
+      <c r="G57" s="2"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
-      <c r="J57" s="2"/>
+      <c r="J57" s="5"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
-      <c r="N57" s="7"/>
-      <c r="P57" s="7"/>
-      <c r="R57" s="7"/>
-    </row>
-    <row r="58" spans="1:18">
+      <c r="M57" s="2"/>
+      <c r="O57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="S57" s="7"/>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="5"/>
+      <c r="G58" s="2"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
-      <c r="J58" s="2"/>
+      <c r="J58" s="5"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
-      <c r="N58" s="7"/>
-      <c r="P58" s="7"/>
-      <c r="R58" s="7"/>
-    </row>
-    <row r="59" spans="1:18">
+      <c r="M58" s="2"/>
+      <c r="O58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="S58" s="7"/>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
       <c r="F59" s="2"/>
-      <c r="G59" s="5"/>
+      <c r="G59" s="2"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
-      <c r="J59" s="2"/>
+      <c r="J59" s="5"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
-      <c r="N59" s="7"/>
-      <c r="P59" s="7"/>
-      <c r="R59" s="7"/>
-    </row>
-    <row r="60" spans="1:18">
+      <c r="M59" s="2"/>
+      <c r="O59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="S59" s="7"/>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
       <c r="F60" s="2"/>
-      <c r="G60" s="5"/>
+      <c r="G60" s="2"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
-      <c r="J60" s="2"/>
+      <c r="J60" s="5"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
-      <c r="P60" s="7"/>
-    </row>
-    <row r="61" spans="1:18">
+      <c r="M60" s="2"/>
+      <c r="Q60" s="7"/>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
       <c r="F61" s="2"/>
-      <c r="G61" s="5"/>
+      <c r="G61" s="2"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
-      <c r="J61" s="2"/>
+      <c r="J61" s="5"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
-      <c r="P61" s="7"/>
-    </row>
-    <row r="62" spans="1:18">
+      <c r="M61" s="2"/>
+      <c r="Q61" s="7"/>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
       <c r="F62" s="2"/>
-      <c r="G62" s="5"/>
+      <c r="G62" s="2"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
-      <c r="J62" s="2"/>
+      <c r="J62" s="5"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
-      <c r="P62" s="7"/>
-    </row>
-    <row r="63" spans="1:18">
+      <c r="M62" s="2"/>
+      <c r="Q62" s="7"/>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
       <c r="F63" s="2"/>
-      <c r="G63" s="5"/>
+      <c r="G63" s="2"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
-      <c r="J63" s="2"/>
+      <c r="J63" s="5"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
-      <c r="N63" s="7"/>
-      <c r="P63" s="7"/>
-      <c r="R63" s="7"/>
-    </row>
-    <row r="64" spans="1:18">
+      <c r="M63" s="2"/>
+      <c r="O63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="S63" s="7"/>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
       <c r="F64" s="2"/>
-      <c r="G64" s="5"/>
+      <c r="G64" s="2"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
-      <c r="J64" s="2"/>
+      <c r="J64" s="5"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
-      <c r="N64" s="7"/>
-      <c r="P64" s="7"/>
-      <c r="R64" s="7"/>
-    </row>
-    <row r="65" spans="1:18">
+      <c r="M64" s="2"/>
+      <c r="O64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="S64" s="7"/>
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
       <c r="F65" s="2"/>
-      <c r="G65" s="5"/>
+      <c r="G65" s="2"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
-      <c r="J65" s="2"/>
+      <c r="J65" s="5"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
-      <c r="N65" s="7"/>
-      <c r="P65" s="7"/>
-      <c r="R65" s="7"/>
-    </row>
-    <row r="66" spans="1:18">
+      <c r="M65" s="2"/>
+      <c r="O65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="S65" s="7"/>
+    </row>
+    <row r="66" spans="1:19">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
       <c r="F66" s="2"/>
-      <c r="G66" s="5"/>
+      <c r="G66" s="2"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
-      <c r="J66" s="2"/>
+      <c r="J66" s="5"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
-      <c r="N66" s="7"/>
-      <c r="P66" s="7"/>
-      <c r="R66" s="7"/>
-    </row>
-    <row r="67" spans="1:18">
+      <c r="M66" s="2"/>
+      <c r="O66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="S66" s="7"/>
+    </row>
+    <row r="67" spans="1:19">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
       <c r="F67" s="2"/>
-      <c r="G67" s="5"/>
+      <c r="G67" s="2"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
-      <c r="J67" s="2"/>
+      <c r="J67" s="5"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
-      <c r="N67" s="7"/>
-      <c r="P67" s="7"/>
-      <c r="R67" s="7"/>
-    </row>
-    <row r="68" spans="1:18">
+      <c r="M67" s="2"/>
+      <c r="O67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="S67" s="7"/>
+    </row>
+    <row r="68" spans="1:19">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
       <c r="F68" s="2"/>
-      <c r="G68" s="5"/>
+      <c r="G68" s="2"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
-      <c r="J68" s="2"/>
+      <c r="J68" s="5"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
-      <c r="N68" s="7"/>
-      <c r="P68" s="7"/>
-      <c r="R68" s="7"/>
-    </row>
-    <row r="69" spans="1:18">
+      <c r="M68" s="2"/>
+      <c r="O68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="S68" s="7"/>
+    </row>
+    <row r="69" spans="1:19">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
       <c r="F69" s="2"/>
-      <c r="G69" s="5"/>
+      <c r="G69" s="2"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
-      <c r="J69" s="2"/>
+      <c r="J69" s="5"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
-      <c r="N69" s="7"/>
-      <c r="P69" s="7"/>
-      <c r="R69" s="7"/>
-    </row>
-    <row r="70" spans="1:18">
+      <c r="M69" s="2"/>
+      <c r="O69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="S69" s="7"/>
+    </row>
+    <row r="70" spans="1:19">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
       <c r="F70" s="2"/>
-      <c r="G70" s="5"/>
+      <c r="G70" s="2"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
-      <c r="J70" s="2"/>
+      <c r="J70" s="5"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
-      <c r="N70" s="7"/>
-      <c r="P70" s="7"/>
-      <c r="R70" s="7"/>
-    </row>
-    <row r="71" spans="1:18">
+      <c r="M70" s="2"/>
+      <c r="O70" s="7"/>
+      <c r="Q70" s="7"/>
+      <c r="S70" s="7"/>
+    </row>
+    <row r="71" spans="1:19">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
       <c r="F71" s="2"/>
-      <c r="G71" s="5"/>
+      <c r="G71" s="2"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
-      <c r="J71" s="2"/>
+      <c r="J71" s="5"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
-      <c r="N71" s="7"/>
-      <c r="P71" s="7"/>
-      <c r="R71" s="7"/>
-    </row>
-    <row r="72" spans="1:18">
+      <c r="M71" s="2"/>
+      <c r="O71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="S71" s="7"/>
+    </row>
+    <row r="72" spans="1:19">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
       <c r="F72" s="2"/>
-      <c r="G72" s="5"/>
+      <c r="G72" s="2"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
-      <c r="J72" s="2"/>
+      <c r="J72" s="5"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
-      <c r="N72" s="7"/>
-      <c r="P72" s="7"/>
-      <c r="R72" s="7"/>
-    </row>
-    <row r="73" spans="1:18">
+      <c r="M72" s="2"/>
+      <c r="O72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="S72" s="7"/>
+    </row>
+    <row r="73" spans="1:19">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
       <c r="F73" s="2"/>
-      <c r="G73" s="5"/>
+      <c r="G73" s="2"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
-      <c r="J73" s="2"/>
+      <c r="J73" s="5"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
-      <c r="N73" s="7"/>
-      <c r="P73" s="7"/>
-      <c r="R73" s="7"/>
-    </row>
-    <row r="74" spans="1:18">
+      <c r="M73" s="2"/>
+      <c r="O73" s="7"/>
+      <c r="Q73" s="7"/>
+      <c r="S73" s="7"/>
+    </row>
+    <row r="74" spans="1:19">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
       <c r="F74" s="2"/>
-      <c r="G74" s="5"/>
+      <c r="G74" s="2"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
-      <c r="J74" s="2"/>
+      <c r="J74" s="5"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
-      <c r="N74" s="7"/>
-      <c r="P74" s="7"/>
-      <c r="R74" s="7"/>
-    </row>
-    <row r="75" spans="1:18">
+      <c r="M74" s="2"/>
+      <c r="O74" s="7"/>
+      <c r="Q74" s="7"/>
+      <c r="S74" s="7"/>
+    </row>
+    <row r="75" spans="1:19">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
       <c r="F75" s="2"/>
-      <c r="G75" s="5"/>
+      <c r="G75" s="2"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
-      <c r="J75" s="2"/>
+      <c r="J75" s="5"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
-      <c r="N75" s="7"/>
-      <c r="P75" s="7"/>
-      <c r="R75" s="7"/>
-    </row>
-    <row r="76" spans="1:18">
+      <c r="M75" s="2"/>
+      <c r="O75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="S75" s="7"/>
+    </row>
+    <row r="76" spans="1:19">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
       <c r="F76" s="2"/>
-      <c r="G76" s="5"/>
+      <c r="G76" s="2"/>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
-      <c r="J76" s="2"/>
+      <c r="J76" s="5"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
-      <c r="N76" s="7"/>
-      <c r="P76" s="7"/>
-      <c r="R76" s="7"/>
-    </row>
-    <row r="77" spans="1:18">
+      <c r="M76" s="2"/>
+      <c r="O76" s="7"/>
+      <c r="Q76" s="7"/>
+      <c r="S76" s="7"/>
+    </row>
+    <row r="77" spans="1:19">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
       <c r="F77" s="2"/>
-      <c r="G77" s="5"/>
+      <c r="G77" s="2"/>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
-      <c r="J77" s="2"/>
+      <c r="J77" s="5"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
-      <c r="N77" s="7"/>
-      <c r="P77" s="7"/>
-      <c r="R77" s="7"/>
-    </row>
-    <row r="78" spans="1:18">
+      <c r="M77" s="2"/>
+      <c r="O77" s="7"/>
+      <c r="Q77" s="7"/>
+      <c r="S77" s="7"/>
+    </row>
+    <row r="78" spans="1:19">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
       <c r="F78" s="2"/>
-      <c r="G78" s="5"/>
+      <c r="G78" s="2"/>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
-      <c r="J78" s="2"/>
+      <c r="J78" s="5"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
-      <c r="N78" s="7"/>
-      <c r="P78" s="7"/>
-      <c r="R78" s="7"/>
-    </row>
-    <row r="79" spans="1:18">
+      <c r="M78" s="2"/>
+      <c r="O78" s="7"/>
+      <c r="Q78" s="7"/>
+      <c r="S78" s="7"/>
+    </row>
+    <row r="79" spans="1:19">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
       <c r="F79" s="2"/>
-      <c r="G79" s="5"/>
+      <c r="G79" s="2"/>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
-      <c r="J79" s="2"/>
+      <c r="J79" s="5"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
-      <c r="N79" s="7"/>
-      <c r="P79" s="7"/>
-      <c r="R79" s="7"/>
-    </row>
-    <row r="80" spans="1:18">
+      <c r="M79" s="2"/>
+      <c r="O79" s="7"/>
+      <c r="Q79" s="7"/>
+      <c r="S79" s="7"/>
+    </row>
+    <row r="80" spans="1:19">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
       <c r="F80" s="2"/>
-      <c r="G80" s="5"/>
+      <c r="G80" s="2"/>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
-      <c r="J80" s="2"/>
+      <c r="J80" s="5"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
-      <c r="N80" s="7"/>
-      <c r="P80" s="7"/>
-      <c r="R80" s="7"/>
-    </row>
-    <row r="81" spans="1:18">
+      <c r="M80" s="2"/>
+      <c r="O80" s="7"/>
+      <c r="Q80" s="7"/>
+      <c r="S80" s="7"/>
+    </row>
+    <row r="81" spans="1:19">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
       <c r="F81" s="2"/>
-      <c r="G81" s="5"/>
+      <c r="G81" s="2"/>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
-      <c r="J81" s="2"/>
+      <c r="J81" s="5"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
-      <c r="N81" s="7"/>
-      <c r="P81" s="7"/>
-      <c r="R81" s="7"/>
-    </row>
-    <row r="82" spans="1:18">
+      <c r="M81" s="2"/>
+      <c r="O81" s="7"/>
+      <c r="Q81" s="7"/>
+      <c r="S81" s="7"/>
+    </row>
+    <row r="82" spans="1:19">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
       <c r="F82" s="2"/>
-      <c r="G82" s="5"/>
+      <c r="G82" s="2"/>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
-      <c r="J82" s="2"/>
+      <c r="J82" s="5"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
-      <c r="N82" s="7"/>
-      <c r="P82" s="7"/>
-      <c r="R82" s="7"/>
-    </row>
-    <row r="83" spans="1:18">
+      <c r="M82" s="2"/>
+      <c r="O82" s="7"/>
+      <c r="Q82" s="7"/>
+      <c r="S82" s="7"/>
+    </row>
+    <row r="83" spans="1:19">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
       <c r="F83" s="2"/>
-      <c r="G83" s="5"/>
+      <c r="G83" s="2"/>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
-      <c r="J83" s="2"/>
+      <c r="J83" s="5"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
-      <c r="N83" s="7"/>
-      <c r="P83" s="7"/>
-      <c r="R83" s="7"/>
-    </row>
-    <row r="84" spans="1:18">
+      <c r="M83" s="2"/>
+      <c r="O83" s="7"/>
+      <c r="Q83" s="7"/>
+      <c r="S83" s="7"/>
+    </row>
+    <row r="84" spans="1:19">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
       <c r="F84" s="2"/>
-      <c r="G84" s="5"/>
+      <c r="G84" s="2"/>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
-      <c r="J84" s="2"/>
+      <c r="J84" s="5"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
-      <c r="N84" s="7"/>
-      <c r="P84" s="7"/>
-      <c r="R84" s="7"/>
-    </row>
-    <row r="85" spans="1:18">
+      <c r="M84" s="2"/>
+      <c r="O84" s="7"/>
+      <c r="Q84" s="7"/>
+      <c r="S84" s="7"/>
+    </row>
+    <row r="85" spans="1:19">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
       <c r="F85" s="2"/>
-      <c r="G85" s="5"/>
+      <c r="G85" s="2"/>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
-      <c r="J85" s="2"/>
+      <c r="J85" s="5"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
-      <c r="N85" s="7"/>
-      <c r="P85" s="7"/>
-      <c r="R85" s="7"/>
-    </row>
-    <row r="86" spans="1:18">
+      <c r="M85" s="2"/>
+      <c r="O85" s="7"/>
+      <c r="Q85" s="7"/>
+      <c r="S85" s="7"/>
+    </row>
+    <row r="86" spans="1:19">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
       <c r="F86" s="2"/>
-      <c r="G86" s="5"/>
+      <c r="G86" s="2"/>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
-      <c r="J86" s="2"/>
+      <c r="J86" s="5"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
-      <c r="N86" s="7"/>
-      <c r="P86" s="7"/>
-      <c r="R86" s="7"/>
-    </row>
-    <row r="87" spans="1:18">
+      <c r="M86" s="2"/>
+      <c r="O86" s="7"/>
+      <c r="Q86" s="7"/>
+      <c r="S86" s="7"/>
+    </row>
+    <row r="87" spans="1:19">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
       <c r="F87" s="2"/>
-      <c r="G87" s="5"/>
+      <c r="G87" s="2"/>
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
-      <c r="J87" s="2"/>
+      <c r="J87" s="5"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
-      <c r="N87" s="7"/>
-      <c r="P87" s="7"/>
-      <c r="R87" s="7"/>
-    </row>
-    <row r="88" spans="1:18">
+      <c r="M87" s="2"/>
+      <c r="O87" s="7"/>
+      <c r="Q87" s="7"/>
+      <c r="S87" s="7"/>
+    </row>
+    <row r="88" spans="1:19">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
       <c r="F88" s="2"/>
-      <c r="G88" s="5"/>
+      <c r="G88" s="2"/>
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
-      <c r="J88" s="2"/>
+      <c r="J88" s="5"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
-      <c r="N88" s="7"/>
-      <c r="P88" s="7"/>
-      <c r="R88" s="7"/>
-    </row>
-    <row r="89" spans="1:18">
+      <c r="M88" s="2"/>
+      <c r="O88" s="7"/>
+      <c r="Q88" s="7"/>
+      <c r="S88" s="7"/>
+    </row>
+    <row r="89" spans="1:19">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
       <c r="F89" s="2"/>
-      <c r="G89" s="5"/>
+      <c r="G89" s="2"/>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
-      <c r="J89" s="2"/>
+      <c r="J89" s="5"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
-      <c r="N89" s="7"/>
-      <c r="P89" s="7"/>
-      <c r="R89" s="7"/>
-    </row>
-    <row r="90" spans="1:18">
+      <c r="M89" s="2"/>
+      <c r="O89" s="7"/>
+      <c r="Q89" s="7"/>
+      <c r="S89" s="7"/>
+    </row>
+    <row r="90" spans="1:19">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
       <c r="F90" s="2"/>
-      <c r="G90" s="5"/>
+      <c r="G90" s="2"/>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
-      <c r="J90" s="2"/>
+      <c r="J90" s="5"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
-      <c r="N90" s="7"/>
-      <c r="P90" s="7"/>
-      <c r="R90" s="7"/>
-    </row>
-    <row r="91" spans="1:18">
+      <c r="M90" s="2"/>
+      <c r="O90" s="7"/>
+      <c r="Q90" s="7"/>
+      <c r="S90" s="7"/>
+    </row>
+    <row r="91" spans="1:19">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
       <c r="F91" s="2"/>
-      <c r="G91" s="5"/>
+      <c r="G91" s="2"/>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
-      <c r="J91" s="2"/>
+      <c r="J91" s="5"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
-      <c r="N91" s="7"/>
-      <c r="P91" s="7"/>
-      <c r="R91" s="7"/>
-    </row>
-    <row r="92" spans="1:18">
+      <c r="M91" s="2"/>
+      <c r="O91" s="7"/>
+      <c r="Q91" s="7"/>
+      <c r="S91" s="7"/>
+    </row>
+    <row r="92" spans="1:19">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
-      <c r="G92" s="8"/>
+      <c r="G92" s="7"/>
       <c r="H92" s="8"/>
       <c r="I92" s="8"/>
-      <c r="J92" s="7"/>
+      <c r="J92" s="8"/>
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
-      <c r="N92" s="7"/>
+      <c r="M92" s="7"/>
       <c r="O92" s="7"/>
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
+      <c r="S92" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -29826,7 +30089,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Doc/XmlDataDocument_170215.xlsx
+++ b/Doc/XmlDataDocument_170215.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15300" yWindow="45" windowWidth="12300" windowHeight="13020"/>
+    <workbookView xWindow="15300" yWindow="45" windowWidth="12300" windowHeight="13020" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Research" sheetId="5" r:id="rId1"/>
     <sheet name="Bonus" sheetId="2" r:id="rId2"/>
     <sheet name="Elemental" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Talent" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="237">
   <si>
     <t>hero</t>
   </si>
@@ -626,6 +627,326 @@
     <t>subicon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>T01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T02</t>
+  </si>
+  <si>
+    <t>T03</t>
+  </si>
+  <si>
+    <t>T04</t>
+  </si>
+  <si>
+    <t>T05</t>
+  </si>
+  <si>
+    <t>T06</t>
+  </si>
+  <si>
+    <t>T07</t>
+  </si>
+  <si>
+    <t>T08</t>
+  </si>
+  <si>
+    <t>T09</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>T13</t>
+  </si>
+  <si>
+    <t>snowball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C.S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C.R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C.D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fever</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빠른검술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약점포착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예리한검술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근면함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구의 경험치 요구량이 2% 줄어듭니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨업 경험치 요구량이 2% 줄어듭니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도가 5% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리티컬 확률이 1% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리티컬 공격의 피해량이 10% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광전사의물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 스테이지동안 광전사가 되어 강력한 공격이 가능합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염구의 시전속도가 10% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물폭탄의 시전속도가 10% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짱돌의 시전속도가 10% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지지직의 시전속도가 10% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈덩이의 시전속도가 10% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elemental</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Util</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집중의물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 스테이지동안 마력집중 상태가 되어 매우 강력한 마법을 시전합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rateR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rateABS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 진행중인 연구 중 가장 짧은 연구가 즉시 완료됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$d의 경험치를 획득합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elementals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이아몬드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 다이아를 획득합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroFever</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementalFever</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diamond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinishResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackSpeedXH</t>
+  </si>
+  <si>
+    <t>CriticalRateXH</t>
+  </si>
+  <si>
+    <t>CriticalDamageXH</t>
+  </si>
+  <si>
+    <t>CastSpeedXH</t>
+  </si>
+  <si>
+    <t>LevelUpPriceXH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResearchPriceXH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinishResearch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -741,7 +1062,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -820,11 +1141,53 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="40">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -893,6 +1256,15 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1015,7 +1387,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표28_2" displayName="표28_2" ref="A1:M30" tableType="xml" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" connectionId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표28_2" displayName="표28_2" ref="A1:M30" tableType="xml" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" connectionId="9">
   <autoFilter ref="A1:M30">
     <filterColumn colId="4"/>
     <filterColumn colId="9"/>
@@ -1023,45 +1395,45 @@
     <filterColumn colId="12"/>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" uniqueName="id" name="id" dataDxfId="22">
+    <tableColumn id="1" uniqueName="id" name="id" dataDxfId="37">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/@id" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="requireid" name="requireid" dataDxfId="21">
+    <tableColumn id="2" uniqueName="requireid" name="requireid" dataDxfId="36">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/@requireid" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="requirelevel" name="requirelevel" dataDxfId="20">
+    <tableColumn id="3" uniqueName="requirelevel" name="requirelevel" dataDxfId="35">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/@requirelevel" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="icon" name="icon" dataDxfId="2">
+    <tableColumn id="4" uniqueName="icon" name="icon" dataDxfId="34">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/Info/@icon" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="13" uniqueName="subicon" name="subicon" dataDxfId="0">
+    <tableColumn id="13" uniqueName="subicon" name="subicon" dataDxfId="33">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/Info/@subicon" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="name" name="name" dataDxfId="1">
+    <tableColumn id="5" uniqueName="name" name="name" dataDxfId="32">
       <calculatedColumnFormula>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</calculatedColumnFormula>
       <xmlColumnPr mapId="10" xpath="/Researches/Research/Info/@name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="description" name="descrption" dataDxfId="19">
+    <tableColumn id="6" uniqueName="description" name="descrption" dataDxfId="31">
       <calculatedColumnFormula>CONCATENATE("@S",표28_2[[#This Row],[id]],"D@")</calculatedColumnFormula>
       <xmlColumnPr mapId="10" xpath="/Researches/Research/Info/@description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="level" name="level" dataDxfId="18">
+    <tableColumn id="7" uniqueName="level" name="level" dataDxfId="30">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/Price/@level" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="baselevel" name="baselevel" dataDxfId="17">
+    <tableColumn id="8" uniqueName="baselevel" name="baselevel" dataDxfId="29">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/Price/@baselevel" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="baseprice" name="baseprice" dataDxfId="16">
+    <tableColumn id="12" uniqueName="baseprice" name="baseprice" dataDxfId="28">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/Price/@baseprice" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="rate" name="POTPercent" dataDxfId="15">
+    <tableColumn id="9" uniqueName="rate" name="POTPercent" dataDxfId="27">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/PriceOverTime/@rate" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="basetime" name="baseTime" dataDxfId="14">
+    <tableColumn id="10" uniqueName="basetime" name="baseTime" dataDxfId="26">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/PriceOverTime/@basetime" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="groupid" name="groupid" dataDxfId="13">
+    <tableColumn id="11" uniqueName="groupid" name="groupid" dataDxfId="25">
       <calculatedColumnFormula>CONCATENATE("B",표28_2[[#This Row],[id]])</calculatedColumnFormula>
       <xmlColumnPr mapId="10" xpath="/Researches/Research/BonusList/@groupid" xmlDataType="string"/>
     </tableColumn>
@@ -1071,23 +1443,23 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표29_3" displayName="표29_3" ref="O1:S30" tableType="xml" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" connectionId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표29_3" displayName="표29_3" ref="O1:S30" tableType="xml" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" connectionId="2">
   <autoFilter ref="O1:S30"/>
   <tableColumns count="5">
-    <tableColumn id="1" uniqueName="group" name="group" dataDxfId="10">
+    <tableColumn id="1" uniqueName="group" name="group" dataDxfId="22">
       <calculatedColumnFormula>표28_2[[#This Row],[groupid]]</calculatedColumnFormula>
       <xmlColumnPr mapId="4" xpath="/BonusList/Bonus/@group" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="target" name="target" dataDxfId="9">
+    <tableColumn id="2" uniqueName="target" name="target" dataDxfId="21">
       <xmlColumnPr mapId="4" xpath="/BonusList/Bonus/@target" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="attribute" name="attribute" dataDxfId="8">
+    <tableColumn id="3" uniqueName="attribute" name="attribute" dataDxfId="20">
       <xmlColumnPr mapId="4" xpath="/BonusList/Bonus/@attribute" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="value" name="value" dataDxfId="7">
+    <tableColumn id="4" uniqueName="value" name="value" dataDxfId="19">
       <xmlColumnPr mapId="4" xpath="/BonusList/Bonus/@value" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="stringvalue" name="stringvalue" dataDxfId="6">
+    <tableColumn id="5" uniqueName="stringvalue" name="stringvalue" dataDxfId="18">
       <xmlColumnPr mapId="4" xpath="/BonusList/Bonus/@stringvalue" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -1108,12 +1480,40 @@
     <tableColumn id="3" uniqueName="attackIntervalK" name="attackIntervalK">
       <xmlColumnPr mapId="7" xpath="/Elementals/Elemental/@attackIntervalK" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="basedps" name="basedps" dataDxfId="5">
+    <tableColumn id="4" uniqueName="basedps" name="basedps" dataDxfId="17">
       <xmlColumnPr mapId="7" xpath="/Elementals/Elemental/@basedps" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="baseexp" name="baseexp" dataDxfId="4">
+    <tableColumn id="5" uniqueName="baseexp" name="baseexp" dataDxfId="16">
       <xmlColumnPr mapId="7" xpath="/Elementals/Elemental/@baseexp" xmlDataType="integer"/>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표28_24" displayName="표28_24" ref="A1:M30" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:M30">
+    <filterColumn colId="12"/>
+  </autoFilter>
+  <tableColumns count="13">
+    <tableColumn id="1" name="id" dataDxfId="14"/>
+    <tableColumn id="2" name="requireid" dataDxfId="13"/>
+    <tableColumn id="4" name="icon" dataDxfId="12"/>
+    <tableColumn id="13" name="subicon" dataDxfId="11"/>
+    <tableColumn id="5" name="name" dataDxfId="10">
+      <calculatedColumnFormula>CONCATENATE("@S",표28_24[[#This Row],[id]],"N@")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="descrption" dataDxfId="9">
+      <calculatedColumnFormula>CONCATENATE("@S",표28_24[[#This Row],[id]],"D@")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="type" dataDxfId="8"/>
+    <tableColumn id="8" name="rateR" dataDxfId="7"/>
+    <tableColumn id="12" name="rateABS" dataDxfId="6"/>
+    <tableColumn id="9" name="target" dataDxfId="5"/>
+    <tableColumn id="10" name="attribute" dataDxfId="4"/>
+    <tableColumn id="11" name="value" dataDxfId="3"/>
+    <tableColumn id="3" name="stringvalue" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1406,11 +1806,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="8" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomRight" activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2988,7 +3388,7 @@
         <v>BR99</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>78</v>
+        <v>217</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>79</v>
@@ -3045,7 +3445,7 @@
         <v>BR98</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>78</v>
+        <v>217</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>79</v>
@@ -3101,8 +3501,8 @@
         <f>표28_2[[#This Row],[groupid]]</f>
         <v>BR97</v>
       </c>
-      <c r="P30" s="7" t="s">
-        <v>78</v>
+      <c r="P30" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>79</v>
@@ -4178,7 +4578,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4381,10 +4781,866 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="11" max="11" width="26.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H2" s="5">
+        <v>100</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L2" s="2">
+        <v>5</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="O2" t="s">
+        <v>234</v>
+      </c>
+      <c r="P2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H3" s="5">
+        <v>100</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L3" s="2">
+        <v>5</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="O3" t="s">
+        <v>234</v>
+      </c>
+      <c r="P3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H4" s="5">
+        <v>100</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="L4" s="2">
+        <v>10</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="O4" t="s">
+        <v>234</v>
+      </c>
+      <c r="P4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H6" s="5">
+        <v>100</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L6" s="2">
+        <v>10</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="O6" t="s">
+        <v>234</v>
+      </c>
+      <c r="P6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H7" s="8">
+        <v>100</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L7" s="9">
+        <v>10</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="O7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H8" s="8">
+        <v>100</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L8" s="9">
+        <v>10</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="O8" t="s">
+        <v>234</v>
+      </c>
+      <c r="P8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H9" s="8">
+        <v>100</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L9" s="9">
+        <v>10</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="O9" t="s">
+        <v>234</v>
+      </c>
+      <c r="P9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H10" s="8">
+        <v>100</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L10" s="9">
+        <v>10</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="O10" t="s">
+        <v>234</v>
+      </c>
+      <c r="P10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5">
+        <v>10</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="H12" s="8">
+        <v>100</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L12" s="2">
+        <v>2</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="P12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="H13" s="8">
+        <v>100</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L13" s="2">
+        <v>2</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="P13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="H14" s="8">
+        <v>100</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="H15" s="8">
+        <v>100</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5">
+        <v>10</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="25"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T967"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:H6"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -30089,7 +31345,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Doc/XmlDataDocument_170215.xlsx
+++ b/Doc/XmlDataDocument_170215.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="241">
   <si>
     <t>hero</t>
   </si>
@@ -947,6 +947,21 @@
     <t>점증</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>target2</t>
+  </si>
+  <si>
+    <t>maxper10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡은몹의10% = 409.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1148,12 +1163,21 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="41">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1198,16 +1222,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -1387,7 +1405,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표28_2" displayName="표28_2" ref="A1:M30" tableType="xml" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" connectionId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표28_2" displayName="표28_2" ref="A1:M30" tableType="xml" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" connectionId="9">
   <autoFilter ref="A1:M30">
     <filterColumn colId="4"/>
     <filterColumn colId="9"/>
@@ -1395,45 +1413,45 @@
     <filterColumn colId="12"/>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" uniqueName="id" name="id" dataDxfId="37">
+    <tableColumn id="1" uniqueName="id" name="id" dataDxfId="38">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/@id" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="requireid" name="requireid" dataDxfId="36">
+    <tableColumn id="2" uniqueName="requireid" name="requireid" dataDxfId="37">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/@requireid" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="requirelevel" name="requirelevel" dataDxfId="35">
+    <tableColumn id="3" uniqueName="requirelevel" name="requirelevel" dataDxfId="36">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/@requirelevel" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="icon" name="icon" dataDxfId="34">
+    <tableColumn id="4" uniqueName="icon" name="icon" dataDxfId="35">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/Info/@icon" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="13" uniqueName="subicon" name="subicon" dataDxfId="33">
+    <tableColumn id="13" uniqueName="subicon" name="subicon" dataDxfId="34">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/Info/@subicon" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="name" name="name" dataDxfId="32">
+    <tableColumn id="5" uniqueName="name" name="name" dataDxfId="33">
       <calculatedColumnFormula>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</calculatedColumnFormula>
       <xmlColumnPr mapId="10" xpath="/Researches/Research/Info/@name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="description" name="descrption" dataDxfId="31">
+    <tableColumn id="6" uniqueName="description" name="descrption" dataDxfId="32">
       <calculatedColumnFormula>CONCATENATE("@S",표28_2[[#This Row],[id]],"D@")</calculatedColumnFormula>
       <xmlColumnPr mapId="10" xpath="/Researches/Research/Info/@description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="level" name="level" dataDxfId="30">
+    <tableColumn id="7" uniqueName="level" name="level" dataDxfId="31">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/Price/@level" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="baselevel" name="baselevel" dataDxfId="29">
+    <tableColumn id="8" uniqueName="baselevel" name="baselevel" dataDxfId="30">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/Price/@baselevel" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="baseprice" name="baseprice" dataDxfId="28">
+    <tableColumn id="12" uniqueName="baseprice" name="baseprice" dataDxfId="29">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/Price/@baseprice" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="rate" name="POTPercent" dataDxfId="27">
+    <tableColumn id="9" uniqueName="rate" name="POTPercent" dataDxfId="28">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/PriceOverTime/@rate" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="basetime" name="baseTime" dataDxfId="26">
+    <tableColumn id="10" uniqueName="basetime" name="baseTime" dataDxfId="27">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/PriceOverTime/@basetime" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="groupid" name="groupid" dataDxfId="25">
+    <tableColumn id="11" uniqueName="groupid" name="groupid" dataDxfId="26">
       <calculatedColumnFormula>CONCATENATE("B",표28_2[[#This Row],[id]])</calculatedColumnFormula>
       <xmlColumnPr mapId="10" xpath="/Researches/Research/BonusList/@groupid" xmlDataType="string"/>
     </tableColumn>
@@ -1443,23 +1461,23 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표29_3" displayName="표29_3" ref="O1:S30" tableType="xml" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" connectionId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표29_3" displayName="표29_3" ref="O1:S30" tableType="xml" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" connectionId="2">
   <autoFilter ref="O1:S30"/>
   <tableColumns count="5">
-    <tableColumn id="1" uniqueName="group" name="group" dataDxfId="22">
+    <tableColumn id="1" uniqueName="group" name="group" dataDxfId="23">
       <calculatedColumnFormula>표28_2[[#This Row],[groupid]]</calculatedColumnFormula>
       <xmlColumnPr mapId="4" xpath="/BonusList/Bonus/@group" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="target" name="target" dataDxfId="21">
+    <tableColumn id="2" uniqueName="target" name="target" dataDxfId="22">
       <xmlColumnPr mapId="4" xpath="/BonusList/Bonus/@target" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="attribute" name="attribute" dataDxfId="20">
+    <tableColumn id="3" uniqueName="attribute" name="attribute" dataDxfId="21">
       <xmlColumnPr mapId="4" xpath="/BonusList/Bonus/@attribute" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="value" name="value" dataDxfId="19">
+    <tableColumn id="4" uniqueName="value" name="value" dataDxfId="20">
       <xmlColumnPr mapId="4" xpath="/BonusList/Bonus/@value" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="stringvalue" name="stringvalue" dataDxfId="18">
+    <tableColumn id="5" uniqueName="stringvalue" name="stringvalue" dataDxfId="19">
       <xmlColumnPr mapId="4" xpath="/BonusList/Bonus/@stringvalue" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -1480,10 +1498,10 @@
     <tableColumn id="3" uniqueName="attackIntervalK" name="attackIntervalK">
       <xmlColumnPr mapId="7" xpath="/Elementals/Elemental/@attackIntervalK" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="basedps" name="basedps" dataDxfId="17">
+    <tableColumn id="4" uniqueName="basedps" name="basedps" dataDxfId="18">
       <xmlColumnPr mapId="7" xpath="/Elementals/Elemental/@basedps" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="baseexp" name="baseexp" dataDxfId="16">
+    <tableColumn id="5" uniqueName="baseexp" name="baseexp" dataDxfId="17">
       <xmlColumnPr mapId="7" xpath="/Elementals/Elemental/@baseexp" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
@@ -1492,11 +1510,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표28_24" displayName="표28_24" ref="A1:M30" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:M30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표28_24" displayName="표28_24" ref="A1:N30" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:N30">
     <filterColumn colId="12"/>
+    <filterColumn colId="13"/>
   </autoFilter>
-  <tableColumns count="13">
+  <tableColumns count="14">
     <tableColumn id="1" name="id" dataDxfId="14"/>
     <tableColumn id="2" name="requireid" dataDxfId="13"/>
     <tableColumn id="4" name="icon" dataDxfId="12"/>
@@ -1510,10 +1529,11 @@
     <tableColumn id="7" name="type" dataDxfId="8"/>
     <tableColumn id="8" name="rateR" dataDxfId="7"/>
     <tableColumn id="12" name="rateABS" dataDxfId="6"/>
-    <tableColumn id="9" name="target" dataDxfId="5"/>
-    <tableColumn id="10" name="attribute" dataDxfId="4"/>
-    <tableColumn id="11" name="value" dataDxfId="3"/>
-    <tableColumn id="3" name="stringvalue" dataDxfId="2"/>
+    <tableColumn id="9" name="maxper10" dataDxfId="5"/>
+    <tableColumn id="10" name="target2" dataDxfId="4"/>
+    <tableColumn id="11" name="attribute" dataDxfId="3"/>
+    <tableColumn id="3" name="value" dataDxfId="2"/>
+    <tableColumn id="14" name="stringvalue" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1807,10 +1827,10 @@
   <dimension ref="A1:S92"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R17" sqref="R17"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4784,7 +4804,7 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4792,7 +4812,9 @@
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="15.375" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="11" max="11" width="26.875" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
+    <col min="12" max="12" width="19.375" customWidth="1"/>
+    <col min="14" max="14" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4824,15 +4846,18 @@
         <v>213</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>13</v>
+        <v>238</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4862,16 +4887,19 @@
         <v>100</v>
       </c>
       <c r="I2" s="5"/>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="2">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>5</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
       <c r="O2" t="s">
         <v>234</v>
       </c>
@@ -4905,16 +4933,19 @@
         <v>100</v>
       </c>
       <c r="I3" s="5"/>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="2">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>5</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
       <c r="O3" t="s">
         <v>234</v>
       </c>
@@ -4948,16 +4979,19 @@
         <v>100</v>
       </c>
       <c r="I4" s="5"/>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="2">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="L4" s="2">
-        <v>10</v>
-      </c>
-      <c r="M4" s="2"/>
+      <c r="M4" s="2">
+        <v>10</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" t="s">
         <v>234</v>
       </c>
@@ -4988,14 +5022,15 @@
       <c r="I5" s="5">
         <v>10</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5025,16 +5060,19 @@
         <v>100</v>
       </c>
       <c r="I6" s="5"/>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="2">
+        <v>10</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="L6" s="2">
-        <v>10</v>
-      </c>
-      <c r="M6" s="2"/>
+      <c r="M6" s="2">
+        <v>10</v>
+      </c>
+      <c r="N6" s="2"/>
       <c r="O6" t="s">
         <v>234</v>
       </c>
@@ -5068,16 +5106,19 @@
         <v>100</v>
       </c>
       <c r="I7" s="5"/>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="2">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="L7" s="9">
-        <v>10</v>
-      </c>
-      <c r="M7" s="7"/>
+      <c r="M7" s="9">
+        <v>10</v>
+      </c>
+      <c r="N7" s="7"/>
       <c r="O7" t="s">
         <v>234</v>
       </c>
@@ -5111,16 +5152,19 @@
         <v>100</v>
       </c>
       <c r="I8" s="5"/>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="2">
+        <v>10</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="L8" s="9">
-        <v>10</v>
-      </c>
-      <c r="M8" s="7"/>
+      <c r="M8" s="9">
+        <v>10</v>
+      </c>
+      <c r="N8" s="7"/>
       <c r="O8" t="s">
         <v>234</v>
       </c>
@@ -5154,16 +5198,19 @@
         <v>100</v>
       </c>
       <c r="I9" s="5"/>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="2">
+        <v>10</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="L9" s="9">
-        <v>10</v>
-      </c>
-      <c r="M9" s="7"/>
+      <c r="M9" s="9">
+        <v>10</v>
+      </c>
+      <c r="N9" s="7"/>
       <c r="O9" t="s">
         <v>234</v>
       </c>
@@ -5197,16 +5244,19 @@
         <v>100</v>
       </c>
       <c r="I10" s="5"/>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="2">
+        <v>10</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="L10" s="9">
-        <v>10</v>
-      </c>
-      <c r="M10" s="7"/>
+      <c r="M10" s="9">
+        <v>10</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" t="s">
         <v>234</v>
       </c>
@@ -5237,14 +5287,15 @@
       <c r="I11" s="5">
         <v>10</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="2"/>
+      <c r="K11" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="7"/>
+      <c r="N11" s="7" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5274,16 +5325,22 @@
         <v>100</v>
       </c>
       <c r="I12" s="5"/>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="2">
+        <v>5</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <v>2</v>
       </c>
-      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" t="s">
+        <v>239</v>
+      </c>
       <c r="P12" t="s">
         <v>236</v>
       </c>
@@ -5314,16 +5371,22 @@
         <v>100</v>
       </c>
       <c r="I13" s="5"/>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="2">
+        <v>5</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="L13" s="2">
+      <c r="M13" s="2">
         <v>2</v>
       </c>
-      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" t="s">
+        <v>239</v>
+      </c>
       <c r="P13" t="s">
         <v>236</v>
       </c>
@@ -5351,14 +5414,15 @@
         <v>100</v>
       </c>
       <c r="I14" s="5"/>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="2"/>
+      <c r="K14" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="2"/>
+      <c r="N14" s="7" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5385,16 +5449,20 @@
         <v>100</v>
       </c>
       <c r="I15" s="5"/>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="2"/>
+      <c r="K15" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2"/>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="P15" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
@@ -5419,18 +5487,19 @@
       <c r="I16" s="5">
         <v>10</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="2"/>
+      <c r="K16" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="L16" s="2">
-        <v>1</v>
-      </c>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="M16" s="2">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5443,8 +5512,9 @@
       <c r="K17" s="7"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5457,8 +5527,9 @@
       <c r="K18" s="7"/>
       <c r="L18" s="2"/>
       <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -5471,8 +5542,9 @@
       <c r="K19" s="7"/>
       <c r="L19" s="2"/>
       <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -5485,8 +5557,9 @@
       <c r="K20" s="7"/>
       <c r="L20" s="2"/>
       <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -5499,8 +5572,9 @@
       <c r="K21" s="7"/>
       <c r="L21" s="2"/>
       <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -5513,8 +5587,9 @@
       <c r="K22" s="7"/>
       <c r="L22" s="2"/>
       <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -5527,8 +5602,9 @@
       <c r="K23" s="7"/>
       <c r="L23" s="2"/>
       <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -5541,8 +5617,9 @@
       <c r="K24" s="7"/>
       <c r="L24" s="2"/>
       <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -5555,8 +5632,9 @@
       <c r="K25" s="7"/>
       <c r="L25" s="2"/>
       <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -5569,8 +5647,9 @@
       <c r="K26" s="7"/>
       <c r="L26" s="2"/>
       <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -5583,8 +5662,9 @@
       <c r="K27" s="7"/>
       <c r="L27" s="2"/>
       <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -5597,8 +5677,9 @@
       <c r="K28" s="7"/>
       <c r="L28" s="2"/>
       <c r="M28" s="7"/>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -5611,8 +5692,9 @@
       <c r="K29" s="7"/>
       <c r="L29" s="2"/>
       <c r="M29" s="7"/>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="25"/>
@@ -5625,6 +5707,7 @@
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
+      <c r="N30" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -31345,7 +31428,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Doc/XmlDataDocument_170215.xlsx
+++ b/Doc/XmlDataDocument_170215.xlsx
@@ -776,51 +776,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>연구의 경험치 요구량이 2% 줄어듭니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레벨업 경험치 요구량이 2% 줄어듭니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격속도가 5% 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크리티컬 확률이 1% 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크리티컬 공격의 피해량이 10% 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>광전사의물약</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다음 스테이지동안 광전사가 되어 강력한 공격이 가능합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화염구의 시전속도가 10% 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물폭탄의 시전속도가 10% 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>짱돌의 시전속도가 10% 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지지직의 시전속도가 10% 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈덩이의 시전속도가 10% 증가합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -860,14 +820,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>현재 진행중인 연구 중 가장 짧은 연구가 즉시 완료됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$d의 경험치를 획득합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -888,27 +840,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1 다이아를 획득합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HeroFever</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElementalFever</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Diamond</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FinishResult</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -948,9 +880,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>target2</t>
-  </si>
-  <si>
     <t>maxper10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -960,6 +889,76 @@
   </si>
   <si>
     <t>잡은몹의10% = 409.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 진행중인 연구 중 가장 낮은 연구가 즉시 완료됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장sortorder낮은것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpPerFloor</t>
+  </si>
+  <si>
+    <t>$s의 경험치를 획득합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도가 $s% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리티컬 확률이 $s% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리티컬 공격의 피해량이 $s% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염구의 시전속도가 $s% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물폭탄의 시전속도가 $s% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짱돌의 시전속도가 $s% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지지직의 시전속도가 $s% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈덩이의 시전속도가 $s% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨업 경험치 요구량이 $s% 줄어듭니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구의 경험치 요구량이 $s% 줄어듭니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$s 다이아를 획득합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_18</t>
+  </si>
+  <si>
+    <t>d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1165,9 +1164,6 @@
   </cellStyles>
   <dxfs count="41">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -1178,6 +1174,9 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1530,10 +1529,10 @@
     <tableColumn id="8" name="rateR" dataDxfId="7"/>
     <tableColumn id="12" name="rateABS" dataDxfId="6"/>
     <tableColumn id="9" name="maxper10" dataDxfId="5"/>
-    <tableColumn id="10" name="target2" dataDxfId="4"/>
+    <tableColumn id="10" name="target" dataDxfId="4"/>
     <tableColumn id="11" name="attribute" dataDxfId="3"/>
     <tableColumn id="3" name="value" dataDxfId="2"/>
-    <tableColumn id="14" name="stringvalue" dataDxfId="0"/>
+    <tableColumn id="14" name="stringvalue" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3408,7 +3407,7 @@
         <v>BR99</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>79</v>
@@ -3465,7 +3464,7 @@
         <v>BR98</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>79</v>
@@ -3522,7 +3521,7 @@
         <v>BR97</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>79</v>
@@ -4804,7 +4803,7 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4837,19 +4836,19 @@
         <v>11</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>14</v>
@@ -4878,10 +4877,10 @@
         <v>180</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="H2" s="5">
         <v>100</v>
@@ -4894,17 +4893,17 @@
         <v>17</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="M2" s="2">
         <v>5</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="P2" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -4924,10 +4923,10 @@
         <v>181</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>206</v>
       </c>
       <c r="H3" s="5">
         <v>100</v>
@@ -4940,17 +4939,17 @@
         <v>17</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="M3" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="P3" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -4970,10 +4969,10 @@
         <v>182</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="H4" s="5">
         <v>100</v>
@@ -4986,17 +4985,17 @@
         <v>17</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="M4" s="2">
         <v>10</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="P4" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -5010,13 +5009,13 @@
         <v>178</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5">
@@ -5029,10 +5028,10 @@
       <c r="L5" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2" t="s">
-        <v>222</v>
-      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
@@ -5051,10 +5050,10 @@
         <v>183</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="H6" s="5">
         <v>100</v>
@@ -5067,17 +5066,17 @@
         <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="M6" s="2">
         <v>10</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="P6" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -5097,10 +5096,10 @@
         <v>183</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="H7" s="8">
         <v>100</v>
@@ -5113,17 +5112,17 @@
         <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="M7" s="9">
         <v>10</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="P7" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -5143,10 +5142,10 @@
         <v>183</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="H8" s="8">
         <v>100</v>
@@ -5159,17 +5158,17 @@
         <v>23</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="M8" s="9">
         <v>10</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="P8" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -5189,10 +5188,10 @@
         <v>183</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="H9" s="8">
         <v>100</v>
@@ -5205,17 +5204,17 @@
         <v>25</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="M9" s="9">
         <v>10</v>
       </c>
       <c r="N9" s="7"/>
       <c r="O9" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="P9" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -5235,10 +5234,10 @@
         <v>183</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="H10" s="8">
         <v>100</v>
@@ -5251,17 +5250,17 @@
         <v>166</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="M10" s="9">
         <v>10</v>
       </c>
       <c r="N10" s="7"/>
       <c r="O10" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="P10" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -5272,16 +5271,16 @@
         <v>78</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5">
@@ -5289,15 +5288,15 @@
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7" t="s">
-        <v>223</v>
-      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="2" t="s">
@@ -5316,10 +5315,10 @@
         <v>192</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="H12" s="8">
         <v>100</v>
@@ -5332,17 +5331,17 @@
         <v>187</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="M12" s="2">
         <v>2</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="P12" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -5362,10 +5361,10 @@
         <v>191</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>193</v>
+        <v>237</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="H13" s="8">
         <v>100</v>
@@ -5378,17 +5377,17 @@
         <v>187</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="M13" s="2">
         <v>2</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="P13" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -5405,10 +5404,10 @@
         <v>190</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="H14" s="8">
         <v>100</v>
@@ -5419,31 +5418,37 @@
         <v>187</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="N14" s="7"/>
+      <c r="O14" t="s">
+        <v>217</v>
+      </c>
+      <c r="P14" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>187</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>94</v>
+        <v>239</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>189</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="H15" s="8">
         <v>100</v>
@@ -5454,19 +5459,22 @@
         <v>187</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M15" s="2">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="N15" s="2"/>
+      <c r="O15" t="s">
+        <v>240</v>
+      </c>
       <c r="P15" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>187</v>
@@ -5475,13 +5483,13 @@
         <v>184</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5">
@@ -5492,7 +5500,7 @@
         <v>187</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="M16" s="2">
         <v>1</v>
@@ -31428,7 +31436,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Doc/XmlDataDocument_170215.xlsx
+++ b/Doc/XmlDataDocument_170215.xlsx
@@ -46,11 +46,17 @@
   <connection id="9" name="research5" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\research.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="10" name="talent" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\talent.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="11" name="talent1" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\talent.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="282">
   <si>
     <t>hero</t>
   </si>
@@ -335,10 +341,6 @@
   </si>
   <si>
     <t>R97</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -628,10 +630,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T02</t>
   </si>
   <si>
@@ -668,11 +666,118 @@
     <t>T13</t>
   </si>
   <si>
-    <t>snowball</t>
+    <t>player</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fireball</t>
+    <t>AttackSpeedXH</t>
+  </si>
+  <si>
+    <t>CriticalRateXH</t>
+  </si>
+  <si>
+    <t>CriticalDamageXH</t>
+  </si>
+  <si>
+    <t>CastSpeedXH</t>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡은몹의10% = 409.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장sortorder낮은것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpPerFloor</t>
+  </si>
+  <si>
+    <t>Icon_18</t>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxlevelper10</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>absrate</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requireid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subicon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descrption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stringvalue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -680,31 +785,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Icon_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon_09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon_07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon_04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon_05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A.S</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C.S</t>
+    <t>빠른검술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도가 $s% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -712,23 +813,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C.D</t>
+    <t>약점포착</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Icon_14</t>
+    <t>크리티컬 확률이 $s% 증가합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fever</t>
+    <t>hero</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>빠른검술</t>
+    <t>Attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>약점포착</t>
+    <t>Icon_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C.D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -736,43 +841,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>속성강화</t>
+    <t>크리티컬 공격의 피해량이 $s% 증가합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Icon_18</t>
+    <t>hero</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-R</t>
+    <t>Attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon_19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경험치획득</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근면함</t>
+    <t>Icon_14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -784,11 +865,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
+    <t>Fever</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Attack</t>
+    <t>fireball</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -796,7 +877,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Util</t>
+    <t>Icon_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C.S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염구의 시전속도가 $s% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elemental</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C.S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물폭탄의 시전속도가 $s% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elemental</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C.S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짱돌의 시전속도가 $s% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electricball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elemental</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C.S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지지직의 시전속도가 $s% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snowball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elemental</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C.S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈덩이의 시전속도가 $s% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elemental</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -812,15 +1009,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rateR</t>
+    <t>elementals</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rateABS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T14</t>
+    <t>Fever</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -828,11 +1021,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>elementals</t>
+    <t>Util</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T15</t>
+    <t>Icon_18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근면함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨업 경험치 요구량이 $s% 줄어듭니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelUpPriceXH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Util</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구의 경험치 요구량이 $s% 줄어듭니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResearchPriceXH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Util</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 진행중인 연구 중 가장 낮은 연구가 즉시 완료됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinishResearch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$s의 경험치를 획득합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -840,126 +1113,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>$s 다이아를 획득합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Diamond</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AttackSpeedXH</t>
+    <t>T14</t>
   </si>
   <si>
-    <t>CriticalRateXH</t>
-  </si>
-  <si>
-    <t>CriticalDamageXH</t>
-  </si>
-  <si>
-    <t>CastSpeedXH</t>
-  </si>
-  <si>
-    <t>LevelUpPriceXH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResearchPriceXH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FinishResearch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxper10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잡은몹의10% = 409.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 진행중인 연구 중 가장 낮은 연구가 즉시 완료됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가장sortorder낮은것</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExpPerFloor</t>
-  </si>
-  <si>
-    <t>$s의 경험치를 획득합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격속도가 $s% 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크리티컬 확률이 $s% 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크리티컬 공격의 피해량이 $s% 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화염구의 시전속도가 $s% 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물폭탄의 시전속도가 $s% 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>짱돌의 시전속도가 $s% 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지지직의 시전속도가 $s% 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈덩이의 시전속도가 $s% 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레벨업 경험치 요구량이 $s% 줄어듭니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연구의 경험치 요구량이 $s% 줄어듭니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$s 다이아를 획득합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon_18</t>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>T15</t>
   </si>
 </sst>
 </file>
@@ -971,7 +1136,7 @@
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1017,6 +1182,14 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1076,7 +1249,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1155,14 +1328,47 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="40">
     <dxf>
       <font>
         <condense val="0"/>
@@ -1176,55 +1382,218 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -1391,6 +1760,47 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
+  <Schema ID="Schema8">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="Talents">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Talent" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" name="Info" form="unqualified">
+                    <xsd:complexType>
+                      <xsd:attribute name="icon" form="unqualified" type="xsd:string"/>
+                      <xsd:attribute name="subicon" form="unqualified" type="xsd:string"/>
+                      <xsd:attribute name="name" form="unqualified" type="xsd:string"/>
+                      <xsd:attribute name="description" form="unqualified" type="xsd:string"/>
+                    </xsd:complexType>
+                  </xsd:element>
+                  <xsd:element minOccurs="0" nillable="true" name="Rate" form="unqualified">
+                    <xsd:complexType>
+                      <xsd:attribute name="rate" form="unqualified" type="xsd:integer"/>
+                      <xsd:attribute name="absrate" form="unqualified" type="xsd:integer"/>
+                    </xsd:complexType>
+                  </xsd:element>
+                  <xsd:element minOccurs="0" nillable="true" name="Bonus" form="unqualified">
+                    <xsd:complexType>
+                      <xsd:attribute name="target" form="unqualified" type="xsd:string"/>
+                      <xsd:attribute name="attribute" form="unqualified" type="xsd:string"/>
+                      <xsd:attribute name="value" form="unqualified" type="xsd:integer"/>
+                    </xsd:complexType>
+                  </xsd:element>
+                </xsd:sequence>
+                <xsd:attribute name="id" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="requireid" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="type" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="maxlevelper10" form="unqualified" type="xsd:integer"/>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
   <Map ID="4" Name="BonusList_맵" RootElement="BonusList" SchemaID="Schema4" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
     <DataBinding FileBinding="true" ConnectionID="2" DataBindingLoadMode="1"/>
   </Map>
@@ -1400,11 +1810,14 @@
   <Map ID="10" Name="Researches_맵" RootElement="Researches" SchemaID="Schema6" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
     <DataBinding FileBinding="true" ConnectionID="9" DataBindingLoadMode="1"/>
   </Map>
+  <Map ID="12" Name="Talents_맵" RootElement="Talents" SchemaID="Schema8" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="11" DataBindingLoadMode="1"/>
+  </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표28_2" displayName="표28_2" ref="A1:M30" tableType="xml" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" connectionId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표28_2" displayName="표28_2" ref="A1:M30" tableType="xml" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" connectionId="9">
   <autoFilter ref="A1:M30">
     <filterColumn colId="4"/>
     <filterColumn colId="9"/>
@@ -1412,45 +1825,45 @@
     <filterColumn colId="12"/>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" uniqueName="id" name="id" dataDxfId="38">
+    <tableColumn id="1" uniqueName="id" name="id" dataDxfId="37">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/@id" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="requireid" name="requireid" dataDxfId="37">
+    <tableColumn id="2" uniqueName="requireid" name="requireid" dataDxfId="36">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/@requireid" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="requirelevel" name="requirelevel" dataDxfId="36">
+    <tableColumn id="3" uniqueName="requirelevel" name="requirelevel" dataDxfId="35">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/@requirelevel" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="icon" name="icon" dataDxfId="35">
+    <tableColumn id="4" uniqueName="icon" name="icon" dataDxfId="34">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/Info/@icon" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="13" uniqueName="subicon" name="subicon" dataDxfId="34">
+    <tableColumn id="13" uniqueName="subicon" name="subicon" dataDxfId="33">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/Info/@subicon" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="name" name="name" dataDxfId="33">
+    <tableColumn id="5" uniqueName="name" name="name" dataDxfId="32">
       <calculatedColumnFormula>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</calculatedColumnFormula>
       <xmlColumnPr mapId="10" xpath="/Researches/Research/Info/@name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="description" name="descrption" dataDxfId="32">
+    <tableColumn id="6" uniqueName="description" name="descrption" dataDxfId="31">
       <calculatedColumnFormula>CONCATENATE("@S",표28_2[[#This Row],[id]],"D@")</calculatedColumnFormula>
       <xmlColumnPr mapId="10" xpath="/Researches/Research/Info/@description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="level" name="level" dataDxfId="31">
+    <tableColumn id="7" uniqueName="level" name="level" dataDxfId="30">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/Price/@level" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="baselevel" name="baselevel" dataDxfId="30">
+    <tableColumn id="8" uniqueName="baselevel" name="baselevel" dataDxfId="29">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/Price/@baselevel" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="baseprice" name="baseprice" dataDxfId="29">
+    <tableColumn id="12" uniqueName="baseprice" name="baseprice" dataDxfId="28">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/Price/@baseprice" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="rate" name="POTPercent" dataDxfId="28">
+    <tableColumn id="9" uniqueName="rate" name="POTPercent" dataDxfId="27">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/PriceOverTime/@rate" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="basetime" name="baseTime" dataDxfId="27">
+    <tableColumn id="10" uniqueName="basetime" name="baseTime" dataDxfId="26">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/PriceOverTime/@basetime" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="groupid" name="groupid" dataDxfId="26">
+    <tableColumn id="11" uniqueName="groupid" name="groupid" dataDxfId="25">
       <calculatedColumnFormula>CONCATENATE("B",표28_2[[#This Row],[id]])</calculatedColumnFormula>
       <xmlColumnPr mapId="10" xpath="/Researches/Research/BonusList/@groupid" xmlDataType="string"/>
     </tableColumn>
@@ -1460,23 +1873,23 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표29_3" displayName="표29_3" ref="O1:S30" tableType="xml" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" connectionId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표29_3" displayName="표29_3" ref="O1:S30" tableType="xml" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" connectionId="2">
   <autoFilter ref="O1:S30"/>
   <tableColumns count="5">
-    <tableColumn id="1" uniqueName="group" name="group" dataDxfId="23">
+    <tableColumn id="1" uniqueName="group" name="group" dataDxfId="22">
       <calculatedColumnFormula>표28_2[[#This Row],[groupid]]</calculatedColumnFormula>
       <xmlColumnPr mapId="4" xpath="/BonusList/Bonus/@group" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="target" name="target" dataDxfId="22">
+    <tableColumn id="2" uniqueName="target" name="target" dataDxfId="21">
       <xmlColumnPr mapId="4" xpath="/BonusList/Bonus/@target" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="attribute" name="attribute" dataDxfId="21">
+    <tableColumn id="3" uniqueName="attribute" name="attribute" dataDxfId="20">
       <xmlColumnPr mapId="4" xpath="/BonusList/Bonus/@attribute" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="value" name="value" dataDxfId="20">
+    <tableColumn id="4" uniqueName="value" name="value" dataDxfId="19">
       <xmlColumnPr mapId="4" xpath="/BonusList/Bonus/@value" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="stringvalue" name="stringvalue" dataDxfId="19">
+    <tableColumn id="5" uniqueName="stringvalue" name="stringvalue" dataDxfId="18">
       <xmlColumnPr mapId="4" xpath="/BonusList/Bonus/@stringvalue" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -1497,10 +1910,10 @@
     <tableColumn id="3" uniqueName="attackIntervalK" name="attackIntervalK">
       <xmlColumnPr mapId="7" xpath="/Elementals/Elemental/@attackIntervalK" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="basedps" name="basedps" dataDxfId="18">
+    <tableColumn id="4" uniqueName="basedps" name="basedps" dataDxfId="17">
       <xmlColumnPr mapId="7" xpath="/Elementals/Elemental/@basedps" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="baseexp" name="baseexp" dataDxfId="17">
+    <tableColumn id="5" uniqueName="baseexp" name="baseexp" dataDxfId="16">
       <xmlColumnPr mapId="7" xpath="/Elementals/Elemental/@baseexp" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
@@ -1509,30 +1922,52 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표28_24" displayName="표28_24" ref="A1:N30" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A1:N30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표28_24" displayName="표28_24" ref="A1:M16" tableType="xml" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" connectionId="11">
+  <autoFilter ref="A1:M16">
     <filterColumn colId="12"/>
-    <filterColumn colId="13"/>
   </autoFilter>
-  <tableColumns count="14">
-    <tableColumn id="1" name="id" dataDxfId="14"/>
-    <tableColumn id="2" name="requireid" dataDxfId="13"/>
-    <tableColumn id="4" name="icon" dataDxfId="12"/>
-    <tableColumn id="13" name="subicon" dataDxfId="11"/>
-    <tableColumn id="5" name="name" dataDxfId="10">
+  <tableColumns count="13">
+    <tableColumn id="1" uniqueName="id" name="id" dataDxfId="13">
+      <xmlColumnPr mapId="12" xpath="/Talents/Talent/@id" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="2" uniqueName="requireid" name="requireid" dataDxfId="12">
+      <xmlColumnPr mapId="12" xpath="/Talents/Talent/@requireid" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="7" uniqueName="type" name="type" dataDxfId="11">
+      <xmlColumnPr mapId="12" xpath="/Talents/Talent/@type" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="9" uniqueName="maxlevelper10" name="maxlevelper10" dataDxfId="10">
+      <xmlColumnPr mapId="12" xpath="/Talents/Talent/@maxlevelper10" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="4" uniqueName="icon" name="icon" dataDxfId="9">
+      <xmlColumnPr mapId="12" xpath="/Talents/Talent/Info/@icon" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="13" uniqueName="subicon" name="subicon" dataDxfId="8">
+      <xmlColumnPr mapId="12" xpath="/Talents/Talent/Info/@subicon" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="5" uniqueName="name" name="name" dataDxfId="7">
       <calculatedColumnFormula>CONCATENATE("@S",표28_24[[#This Row],[id]],"N@")</calculatedColumnFormula>
+      <xmlColumnPr mapId="12" xpath="/Talents/Talent/Info/@name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" name="descrption" dataDxfId="9">
+    <tableColumn id="6" uniqueName="description" name="descrption" dataDxfId="6">
       <calculatedColumnFormula>CONCATENATE("@S",표28_24[[#This Row],[id]],"D@")</calculatedColumnFormula>
+      <xmlColumnPr mapId="12" xpath="/Talents/Talent/Info/@description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" name="type" dataDxfId="8"/>
-    <tableColumn id="8" name="rateR" dataDxfId="7"/>
-    <tableColumn id="12" name="rateABS" dataDxfId="6"/>
-    <tableColumn id="9" name="maxper10" dataDxfId="5"/>
-    <tableColumn id="10" name="target" dataDxfId="4"/>
-    <tableColumn id="11" name="attribute" dataDxfId="3"/>
-    <tableColumn id="3" name="value" dataDxfId="2"/>
-    <tableColumn id="14" name="stringvalue" dataDxfId="1"/>
+    <tableColumn id="8" uniqueName="rate" name="rate" dataDxfId="5">
+      <xmlColumnPr mapId="12" xpath="/Talents/Talent/Rate/@rate" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="12" uniqueName="absrate" name="absrate" dataDxfId="4">
+      <xmlColumnPr mapId="12" xpath="/Talents/Talent/Rate/@absrate" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="10" uniqueName="target" name="target" dataDxfId="3">
+      <xmlColumnPr mapId="12" xpath="/Talents/Talent/Bonus/@target" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="11" uniqueName="attribute" name="attribute" dataDxfId="2">
+      <xmlColumnPr mapId="12" xpath="/Talents/Talent/Bonus/@attribute" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="3" uniqueName="value" name="value" dataDxfId="1">
+      <xmlColumnPr mapId="12" xpath="/Talents/Talent/Bonus/@value" xmlDataType="integer"/>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1829,7 +2264,7 @@
       <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1867,7 +2302,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>10</v>
@@ -1911,22 +2346,22 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="C2" s="2">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H2" s="5">
         <v>0</v>
@@ -1958,7 +2393,7 @@
         <v>18</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1972,13 +2407,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H3" s="5">
         <v>0</v>
@@ -2024,13 +2459,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H4" s="5">
         <v>0</v>
@@ -2076,13 +2511,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H5" s="5">
         <v>0</v>
@@ -2128,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H6" s="5">
         <v>0</v>
@@ -2180,17 +2615,17 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x2</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H7" s="8">
         <v>5</v>
@@ -2237,17 +2672,17 @@
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E8" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x2</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H8" s="5">
         <v>15</v>
@@ -2294,17 +2729,17 @@
         <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E9" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x8</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H9" s="8">
         <v>40</v>
@@ -2351,17 +2786,17 @@
         <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E10" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x10</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H10" s="5">
         <v>60</v>
@@ -2408,17 +2843,17 @@
         <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E11" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x30</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H11" s="8">
         <v>90</v>
@@ -2465,17 +2900,17 @@
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H12" s="5">
         <v>0</v>
@@ -2512,7 +2947,7 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>20</v>
@@ -2521,17 +2956,17 @@
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H13" s="5">
         <v>10</v>
@@ -2568,7 +3003,7 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>20</v>
@@ -2577,17 +3012,17 @@
         <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x2</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H14" s="5">
         <v>20</v>
@@ -2624,7 +3059,7 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>20</v>
@@ -2633,17 +3068,17 @@
         <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x3</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H15" s="5">
         <v>30</v>
@@ -2680,7 +3115,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>20</v>
@@ -2689,17 +3124,17 @@
         <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x9</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H16" s="5">
         <v>50</v>
@@ -2736,7 +3171,7 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>20</v>
@@ -2745,17 +3180,17 @@
         <v>50</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E17" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x40</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H17" s="5">
         <v>80</v>
@@ -2801,17 +3236,17 @@
         <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E18" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x3</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="H18" s="5">
         <v>10</v>
@@ -2858,17 +3293,17 @@
         <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E19" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x3</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H19" s="5">
         <v>20</v>
@@ -2915,17 +3350,17 @@
         <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E20" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x8</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H20" s="5">
         <v>40</v>
@@ -2972,17 +3407,17 @@
         <v>40</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E21" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x12</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H21" s="5">
         <v>60</v>
@@ -3020,7 +3455,7 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
@@ -3029,17 +3464,17 @@
         <v>60</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E22" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x12</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H22" s="5">
         <v>80</v>
@@ -3086,17 +3521,17 @@
         <v>0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E23" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x5</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H23" s="5">
         <v>10</v>
@@ -3143,17 +3578,17 @@
         <v>10</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E24" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x6</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H24" s="5">
         <v>30</v>
@@ -3200,17 +3635,17 @@
         <v>30</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E25" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x10</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H25" s="5">
         <v>50</v>
@@ -3257,17 +3692,17 @@
         <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E26" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x5</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H26" s="5">
         <v>10</v>
@@ -3314,17 +3749,17 @@
         <v>10</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E27" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x4</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H27" s="5">
         <v>25</v>
@@ -3371,17 +3806,17 @@
         <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E28" s="2" t="str">
         <f>CONCATENATE("-x",표29_3[[#This Row],[value]])</f>
         <v>-x2</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H28" s="5">
         <v>60</v>
@@ -3407,10 +3842,10 @@
         <v>BR99</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R28" s="2">
         <v>2</v>
@@ -3428,17 +3863,17 @@
         <v>0</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E29" s="2" t="str">
         <f>CONCATENATE("-x",표29_3[[#This Row],[value]])</f>
         <v>-x2</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H29" s="5">
         <v>80</v>
@@ -3464,10 +3899,10 @@
         <v>BR98</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R29" s="2">
         <v>2</v>
@@ -3485,17 +3920,17 @@
         <v>0</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E30" s="2" t="str">
         <f>CONCATENATE("-x",표29_3[[#This Row],[value]])</f>
         <v>-x2</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="H30" s="8">
         <v>100</v>
@@ -3521,10 +3956,10 @@
         <v>BR97</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R30" s="7">
         <v>2</v>
@@ -4597,7 +5032,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4654,10 +5089,10 @@
         <v>5300</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4674,7 +5109,7 @@
         <v>150.40000000000038</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4691,7 +5126,7 @@
         <v>63</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4708,7 +5143,7 @@
         <v>64</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4803,925 +5238,936 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="11" max="11" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="19.375" customWidth="1"/>
-    <col min="14" max="14" width="15.75" customWidth="1"/>
+    <col min="1" max="1" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.375" customWidth="1"/>
+    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="7.25" customWidth="1"/>
+    <col min="10" max="10" width="8.25" customWidth="1"/>
+    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" customWidth="1"/>
+    <col min="14" max="14" width="19.375" customWidth="1"/>
+    <col min="16" max="16" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="33">
+        <v>10</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="I2" s="34">
+        <v>100</v>
+      </c>
+      <c r="J2" s="34"/>
+      <c r="K2" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="M2" s="33">
+        <v>5</v>
+      </c>
+      <c r="N2" s="28"/>
+      <c r="O2" t="s">
+        <v>169</v>
+      </c>
+      <c r="P2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="33">
+        <v>10</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="I3" s="34">
+        <v>100</v>
+      </c>
+      <c r="J3" s="34"/>
+      <c r="K3" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="M3" s="33">
+        <v>1</v>
+      </c>
+      <c r="N3" s="28"/>
+      <c r="O3" t="s">
+        <v>169</v>
+      </c>
+      <c r="P3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" s="33">
+        <v>10</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="I4" s="34">
+        <v>100</v>
+      </c>
+      <c r="J4" s="34"/>
+      <c r="K4" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="M4" s="33">
+        <v>10</v>
+      </c>
+      <c r="N4" s="28"/>
+      <c r="O4" t="s">
+        <v>169</v>
+      </c>
+      <c r="P4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34">
+        <v>10</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="M5" s="33"/>
+      <c r="N5" s="28"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" s="33">
+        <v>10</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="I6" s="34">
+        <v>100</v>
+      </c>
+      <c r="J6" s="34"/>
+      <c r="K6" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="M6" s="33">
+        <v>10</v>
+      </c>
+      <c r="N6" s="28"/>
+      <c r="O6" t="s">
+        <v>169</v>
+      </c>
+      <c r="P6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" s="33">
+        <v>10</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="I7" s="35">
+        <v>100</v>
+      </c>
+      <c r="J7" s="34"/>
+      <c r="K7" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="M7" s="36">
+        <v>10</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="33">
+        <v>10</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="I8" s="35">
+        <v>100</v>
+      </c>
+      <c r="J8" s="34"/>
+      <c r="K8" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="M8" s="36">
+        <v>10</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" t="s">
+        <v>169</v>
+      </c>
+      <c r="P8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9" s="33">
+        <v>10</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="I9" s="35">
+        <v>100</v>
+      </c>
+      <c r="J9" s="34"/>
+      <c r="K9" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="M9" s="36">
+        <v>10</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" t="s">
+        <v>169</v>
+      </c>
+      <c r="P9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="D10" s="33">
+        <v>10</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="I10" s="35">
+        <v>100</v>
+      </c>
+      <c r="J10" s="34"/>
+      <c r="K10" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="M10" s="36">
+        <v>10</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" t="s">
+        <v>169</v>
+      </c>
+      <c r="P10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34">
+        <v>10</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="M11" s="37"/>
+      <c r="N11" s="31"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12" s="33">
+        <v>5</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="I12" s="35">
+        <v>100</v>
+      </c>
+      <c r="J12" s="34"/>
+      <c r="K12" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="M12" s="33">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="N12" s="28"/>
+      <c r="O12" t="s">
+        <v>172</v>
+      </c>
+      <c r="P12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="D13" s="33">
+        <v>5</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="I13" s="35">
+        <v>100</v>
+      </c>
+      <c r="J13" s="34"/>
+      <c r="K13" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="L13" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="M13" s="33">
+        <v>2</v>
+      </c>
+      <c r="N13" s="28"/>
+      <c r="O13" t="s">
+        <v>172</v>
+      </c>
+      <c r="P13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="I14" s="35">
+        <v>100</v>
+      </c>
+      <c r="J14" s="34"/>
+      <c r="K14" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="L14" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="M14" s="33">
+        <v>1</v>
+      </c>
+      <c r="N14" s="31"/>
+      <c r="O14" t="s">
+        <v>169</v>
+      </c>
+      <c r="P14" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="H2" s="5">
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I15" s="35">
         <v>100</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="2">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="M2" s="2">
-        <v>5</v>
-      </c>
-      <c r="N2" s="2"/>
-      <c r="O2" t="s">
-        <v>217</v>
-      </c>
-      <c r="P2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="H3" s="5">
-        <v>100</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="2">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2"/>
-      <c r="O3" t="s">
-        <v>217</v>
-      </c>
-      <c r="P3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="J15" s="34"/>
+      <c r="K15" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="L15" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="M15" s="33">
+        <v>400</v>
+      </c>
+      <c r="N15" s="28"/>
+      <c r="O15" t="s">
         <v>177</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="H4" s="5">
-        <v>100</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="2">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="M4" s="2">
-        <v>10</v>
-      </c>
-      <c r="N4" s="2"/>
-      <c r="O4" t="s">
-        <v>217</v>
-      </c>
-      <c r="P4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5">
-        <v>10</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H6" s="5">
-        <v>100</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="2">
-        <v>10</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="M6" s="2">
-        <v>10</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s">
-        <v>217</v>
-      </c>
-      <c r="P6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H7" s="8">
-        <v>100</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="2">
-        <v>10</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="M7" s="9">
-        <v>10</v>
-      </c>
-      <c r="N7" s="7"/>
-      <c r="O7" t="s">
-        <v>217</v>
-      </c>
-      <c r="P7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H8" s="8">
-        <v>100</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="2">
-        <v>10</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="M8" s="9">
-        <v>10</v>
-      </c>
-      <c r="N8" s="7"/>
-      <c r="O8" t="s">
-        <v>217</v>
-      </c>
-      <c r="P8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H9" s="8">
-        <v>100</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="2">
-        <v>10</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="M9" s="9">
-        <v>10</v>
-      </c>
-      <c r="N9" s="7"/>
-      <c r="O9" t="s">
-        <v>217</v>
-      </c>
-      <c r="P9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="P15" t="s">
         <v>173</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H10" s="8">
-        <v>100</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="2">
-        <v>10</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="M10" s="9">
-        <v>10</v>
-      </c>
-      <c r="N10" s="7"/>
-      <c r="O10" t="s">
-        <v>217</v>
-      </c>
-      <c r="P10" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5">
-        <v>10</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="H12" s="8">
-        <v>100</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="2">
-        <v>5</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="M12" s="2">
-        <v>2</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s">
-        <v>221</v>
-      </c>
-      <c r="P12" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="H13" s="8">
-        <v>100</v>
-      </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="2">
-        <v>5</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="M13" s="2">
-        <v>2</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s">
-        <v>221</v>
-      </c>
-      <c r="P13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="H14" s="8">
-        <v>100</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="M14" s="2">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7"/>
-      <c r="O14" t="s">
-        <v>217</v>
-      </c>
-      <c r="P14" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="H15" s="8">
-        <v>100</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M15" s="2">
-        <v>400</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" t="s">
-        <v>240</v>
-      </c>
-      <c r="P15" t="s">
-        <v>222</v>
-      </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5">
-        <v>10</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M16" s="2">
-        <v>1</v>
-      </c>
-      <c r="N16" s="2"/>
+      <c r="A16" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="E16" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34">
+        <v>10</v>
+      </c>
+      <c r="K16" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="L16" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="M16" s="33">
+        <v>1</v>
+      </c>
+      <c r="N16" s="28"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="2"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="1"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="2"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="1"/>
       <c r="M18" s="7"/>
       <c r="N18" s="2"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="2"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="2"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="1"/>
       <c r="M19" s="7"/>
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="2"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="2"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="1"/>
       <c r="M20" s="7"/>
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="2"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="2"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="1"/>
       <c r="M21" s="7"/>
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="2"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="2"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="1"/>
       <c r="M22" s="7"/>
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="2"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="2"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="1"/>
       <c r="M23" s="7"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="2"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="2"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="1"/>
       <c r="M24" s="7"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="2"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="2"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="1"/>
       <c r="M25" s="7"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="2"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="2"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="1"/>
       <c r="M26" s="7"/>
       <c r="N26" s="2"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="2"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="2"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="1"/>
       <c r="M27" s="7"/>
       <c r="N27" s="2"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="2"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="2"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="1"/>
       <c r="M28" s="7"/>
       <c r="N28" s="2"/>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="2"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="2"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="1"/>
       <c r="M29" s="7"/>
       <c r="N29" s="2"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="25"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="25"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
       <c r="M30" s="7"/>
       <c r="N30" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
